--- a/Financial Services/Fair Isaac Corporation.xlsx
+++ b/Financial Services/Fair Isaac Corporation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2CC706-FA01-A946-A45B-9EFF67A3DE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BF189D-E3EE-9F4B-B20A-16F64C43D3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28360" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1012,6 +1012,17 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1024,17 +1035,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2521,39 +2521,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>711.84500000000003</v>
+    <v>760.15</v>
     <v>340.48</v>
-    <v>1.2672000000000001</v>
-    <v>-4.2</v>
-    <v>-6.2070000000000007E-3</v>
+    <v>1.2622</v>
+    <v>0.83</v>
+    <v>1.127E-3</v>
     <v>0</v>
     <v>0</v>
     <v>USD</v>
     <v>Fair Isaac Corporation is an applied analytics company. The Company operates through two segments: Scores and Software. The Scores segment includes its business-to-business (B2B) scoring solutions and services which give its clients access to predictive credit and other scores that can be integrated into their transaction streams and decision-making processes. This segment also includes its business-to-consumer (B2C) scoring solutions, including its myFICO.com subscription offerings. The Software segment includes pre-configured analytic and decision management solutions designed for a specific type of business need or process, such as account origination, customer management, customer engagement, fraud detection, financial crimes compliance and marketing as well as associated professional services. This segment also includes FICO Platform, a modular software offering designed to support advanced analytic and decision use cases, as well as stand-alone analytic and decisioning software.</v>
-    <v>3305</v>
+    <v>3320</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 West Mendenhall, Suites 105, BOZEMAN, MT, 59715 US</v>
-    <v>677</v>
+    <v>741.83</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45022.958333367969</v>
+    <v>45055.958333367969</v>
     <v>0</v>
-    <v>668.98</v>
-    <v>16914570000</v>
+    <v>733.75</v>
+    <v>18425927788</v>
     <v>FAIR ISAAC CORPORATION</v>
     <v>FAIR ISAAC CORPORATION</v>
-    <v>671.3</v>
-    <v>45.255699999999997</v>
-    <v>676.62</v>
-    <v>672.42</v>
-    <v>672.42</v>
-    <v>25154780</v>
+    <v>735.42</v>
+    <v>49.109299999999998</v>
+    <v>736.41</v>
+    <v>737.24</v>
+    <v>737.24</v>
+    <v>24993120</v>
     <v>FICO</v>
     <v>FAIR ISAAC CORPORATION (XNYS:FICO)</v>
-    <v>127596</v>
-    <v>432187</v>
+    <v>158601</v>
+    <v>204477</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3141,10 +3141,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT101" sqref="AT101"/>
+      <selection pane="bottomRight" activeCell="AP99" sqref="AP99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5308,15 +5308,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>12.2812302598619</v>
+        <v>13.378587922484336</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>45.281695985179674</v>
+        <v>49.327725170730922</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>33.599253904783474</v>
+        <v>36.601428601508481</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -13236,10 +13236,10 @@
       <c r="AL83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS83" s="57" t="s">
+      <c r="AS83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AT83" s="58"/>
+      <c r="AT83" s="63"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13356,10 +13356,10 @@
       <c r="AL84" s="1">
         <v>-2802000</v>
       </c>
-      <c r="AS84" s="59" t="s">
+      <c r="AS84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AT84" s="60"/>
+      <c r="AT84" s="65"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14497,10 +14497,10 @@
       <c r="AL93" s="1">
         <v>2258000</v>
       </c>
-      <c r="AS93" s="59" t="s">
+      <c r="AS93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AT93" s="60"/>
+      <c r="AT93" s="65"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14739,12 +14739,12 @@
       <c r="AL95" s="1">
         <v>-988250000</v>
       </c>
-      <c r="AS95" s="63" t="s">
+      <c r="AS95" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="AT95" s="64" cm="1">
+      <c r="AT95" s="58" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.2672000000000001</v>
+        <v>1.2622</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14989,7 +14989,7 @@
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.5502960000000012E-2</v>
+        <v>9.5287709999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15107,10 +15107,10 @@
       <c r="AL98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS98" s="59" t="s">
+      <c r="AS98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AT98" s="60"/>
+      <c r="AT98" s="65"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15355,7 +15355,7 @@
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>0.10156957103703232</v>
+        <v>9.402178997393075E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15473,12 +15473,12 @@
       <c r="AL101" s="1">
         <v>-18766000</v>
       </c>
-      <c r="AS101" s="63" t="s">
+      <c r="AS101" s="57" t="s">
         <v>142</v>
       </c>
       <c r="AT101" s="50" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>16914570000</v>
+        <v>18425927788</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15601,7 +15601,7 @@
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.89843042896296765</v>
+        <v>0.90597821002606926</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="AT103" s="38">
         <f>AT99+AT101</f>
-        <v>18826800000</v>
+        <v>20338157788</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15842,10 +15842,10 @@
       <c r="AL104" s="11">
         <v>133202000</v>
       </c>
-      <c r="AS104" s="59" t="s">
+      <c r="AS104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AT104" s="60"/>
+      <c r="AT104" s="65"/>
     </row>
     <row r="105" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>8.870610179358529E-2</v>
+        <v>8.9016174303276907E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16201,7 +16201,7 @@
       <c r="AP107" s="40"/>
       <c r="AQ107" s="43">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>10937098330.517422</v>
+        <v>10884122757.312731</v>
       </c>
       <c r="AR107" s="44" t="s">
         <v>148</v>
@@ -16232,7 +16232,7 @@
       </c>
       <c r="AQ108" s="43">
         <f>AQ107+AQ106</f>
-        <v>11616864086.195856</v>
+        <v>11563888512.991165</v>
       </c>
       <c r="AR108" s="44" t="s">
         <v>144</v>
@@ -16242,14 +16242,14 @@
       </c>
       <c r="AT108" s="48">
         <f>AT105</f>
-        <v>8.870610179358529E-2</v>
+        <v>8.9016174303276907E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="61" t="s">
+      <c r="AM109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AN109" s="62"/>
+      <c r="AN109" s="61"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="AM110" s="49" t="s">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="AN110" s="50">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>9487904731.1042194</v>
+        <v>9441181740.053112</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16284,7 +16284,7 @@
       </c>
       <c r="AN113" s="50">
         <f>AN110+AN111-AN112</f>
-        <v>7708876731.1042194</v>
+        <v>7662153740.053112</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16302,16 +16302,16 @@
       </c>
       <c r="AN115" s="53">
         <f>AN113/AN114</f>
-        <v>363.64699332556165</v>
+        <v>361.44295299548901</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AM116" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="AN116" s="65" cm="1">
+      <c r="AN116" s="59" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>672.42</v>
+        <v>737.24</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16320,7 +16320,7 @@
       </c>
       <c r="AN117" s="55">
         <f>AN115/AN116-1</f>
-        <v>-0.45919664298271667</v>
+        <v>-0.50973502116612091</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/Fair Isaac Corporation.xlsx
+++ b/Financial Services/Fair Isaac Corporation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BF189D-E3EE-9F4B-B20A-16F64C43D3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458F6C6-AE95-E244-811F-53D00CCBC9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -551,16 +551,26 @@
   <si>
     <t>Buy/Sell</t>
   </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -893,12 +903,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -951,12 +970,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1017,6 +1030,13 @@
     </xf>
     <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1034,6 +1054,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2521,13 +2547,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>760.15</v>
-    <v>340.48</v>
-    <v>1.2622</v>
-    <v>0.83</v>
-    <v>1.127E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>796.5</v>
+    <v>371.52</v>
+    <v>1.2624</v>
+    <v>-1.21</v>
+    <v>-1.529E-3</v>
+    <v>9.59</v>
+    <v>1.2133E-2</v>
     <v>USD</v>
     <v>Fair Isaac Corporation is an applied analytics company. The Company operates through two segments: Scores and Software. The Scores segment includes its business-to-business (B2B) scoring solutions and services which give its clients access to predictive credit and other scores that can be integrated into their transaction streams and decision-making processes. This segment also includes its business-to-consumer (B2C) scoring solutions, including its myFICO.com subscription offerings. The Software segment includes pre-configured analytic and decision management solutions designed for a specific type of business need or process, such as account origination, customer management, customer engagement, fraud detection, financial crimes compliance and marketing as well as associated professional services. This segment also includes FICO Platform, a modular software offering designed to support advanced analytic and decision use cases, as well as stand-alone analytic and decisioning software.</v>
     <v>3320</v>
@@ -2535,25 +2561,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 West Mendenhall, Suites 105, BOZEMAN, MT, 59715 US</v>
-    <v>741.83</v>
+    <v>796.5</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45055.958333367969</v>
+    <v>45076.958333378905</v>
     <v>0</v>
-    <v>733.75</v>
-    <v>18425927788</v>
+    <v>783.96</v>
+    <v>19754811979</v>
     <v>FAIR ISAAC CORPORATION</v>
     <v>FAIR ISAAC CORPORATION</v>
-    <v>735.42</v>
-    <v>49.109299999999998</v>
-    <v>736.41</v>
-    <v>737.24</v>
-    <v>737.24</v>
+    <v>795</v>
+    <v>52.7911</v>
+    <v>791.62</v>
+    <v>790.41</v>
+    <v>800</v>
     <v>24993120</v>
     <v>FICO</v>
     <v>FAIR ISAAC CORPORATION (XNYS:FICO)</v>
-    <v>158601</v>
-    <v>204477</v>
+    <v>187004</v>
+    <v>220730</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3141,10 +3167,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP99" sqref="AP99"/>
+      <selection pane="bottomRight" activeCell="AO9" sqref="AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5306,20 +5332,20 @@
         <f>(AL35+AK35+AJ35+AI35+AH35)/5</f>
         <v>-3.9080036930294715E-2</v>
       </c>
-      <c r="AS16" s="30">
+      <c r="AS16" s="71">
         <f>AT101/AL3</f>
-        <v>13.378587922484336</v>
-      </c>
-      <c r="AT16" s="30">
+        <v>14.343456242421603</v>
+      </c>
+      <c r="AT16" s="71">
         <f>AT101/AL28</f>
-        <v>49.327725170730922</v>
-      </c>
-      <c r="AU16" s="31">
+        <v>52.885257519254914</v>
+      </c>
+      <c r="AU16" s="72">
         <f>AT101/AL106</f>
-        <v>36.601428601508481</v>
+        <v>39.241136104771158</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5435,7 +5461,7 @@
         <v>68967000</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5553,8 +5579,17 @@
       <c r="AR18" s="18" t="s">
         <v>125</v>
       </c>
+      <c r="AS18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5669,12 +5704,39 @@
       <c r="AL19" s="10">
         <v>560741000</v>
       </c>
-      <c r="AR19" s="32">
+      <c r="AM19" s="61">
+        <v>771900000</v>
+      </c>
+      <c r="AN19" s="61">
+        <v>867100000</v>
+      </c>
+      <c r="AO19" s="61">
+        <v>990600000</v>
+      </c>
+      <c r="AP19" s="61">
+        <v>1025000000</v>
+      </c>
+      <c r="AQ19" s="61">
+        <v>1046000000</v>
+      </c>
+      <c r="AR19" s="30">
         <f>AL40-AL56-AL61</f>
         <v>-1779028000</v>
       </c>
+      <c r="AS19" s="71">
+        <f>AT101/AM3</f>
+        <v>13.42951188239293</v>
+      </c>
+      <c r="AT19" s="71">
+        <f>AT101/AM28</f>
+        <v>40.127588825919155</v>
+      </c>
+      <c r="AU19" s="72">
+        <f>AT101/AM105</f>
+        <v>30.523504293881334</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -5823,8 +5885,28 @@
         <f t="shared" si="3"/>
         <v>4.0671756745220167E-2</v>
       </c>
+      <c r="AM20" s="16">
+        <f t="shared" ref="AM20" si="4">(AM19/AL19)-1</f>
+        <v>0.37657135825630728</v>
+      </c>
+      <c r="AN20" s="16">
+        <f t="shared" ref="AN20" si="5">(AN19/AM19)-1</f>
+        <v>0.12333203782873436</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" ref="AO20" si="6">(AO19/AN19)-1</f>
+        <v>0.14242878560719641</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" ref="AP20" si="7">(AP19/AO19)-1</f>
+        <v>3.4726428427215739E-2</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" ref="AQ20" si="8">(AQ19/AP19)-1</f>
+        <v>2.0487804878048799E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5939,8 +6021,28 @@
       <c r="AL21" s="2">
         <v>0.40710000000000002</v>
       </c>
+      <c r="AM21" s="62">
+        <f>AM19/AM3</f>
+        <v>0.52474507138001358</v>
+      </c>
+      <c r="AN21" s="62">
+        <f t="shared" ref="AN21:AQ21" si="9">AN19/AN3</f>
+        <v>0.54024922118380059</v>
+      </c>
+      <c r="AO21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.56348122866894201</v>
+      </c>
+      <c r="AP21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.56318681318681318</v>
+      </c>
+      <c r="AQ21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.56357758620689657</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6056,7 +6158,7 @@
         <v>542414000</v>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6172,7 +6274,7 @@
         <v>0.39379999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6288,7 +6390,7 @@
         <v>-71105000</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6404,7 +6506,7 @@
         <v>471309000</v>
       </c>
     </row>
-    <row r="26" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6520,7 +6622,7 @@
         <v>0.3422</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6636,7 +6738,7 @@
         <v>97768000</v>
       </c>
     </row>
-    <row r="28" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6751,8 +6853,23 @@
       <c r="AL28" s="11">
         <v>373541000</v>
       </c>
+      <c r="AM28" s="58">
+        <v>492300000</v>
+      </c>
+      <c r="AN28" s="58">
+        <v>562400000</v>
+      </c>
+      <c r="AO28" s="58">
+        <v>647800000</v>
+      </c>
+      <c r="AP28" s="58">
+        <v>670400000</v>
+      </c>
+      <c r="AQ28" s="58">
+        <v>683800000</v>
+      </c>
     </row>
-    <row r="29" spans="1:44" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -6770,139 +6887,159 @@
         <v>-0.16666666666666663</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AL29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AL29" si="10">(F28/E28)-1</f>
         <v>-0.19999999999999996</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.39285714285714279</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.35897435897435903</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.8867924528301887</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.27</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.27559055118110232</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.27777777777777768</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.17391304347826098</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.19753086419753085</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-5.0481099656357387E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.66885020448047472</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.61216169326856351</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.9917803623350485</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-4.0771951435743858E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.30898548468692844</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.23086184855962189</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.1247898266432133E-2</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.19778308647873866</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.22453306651419858</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-9.9075297225891257E-3</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.11022852444265174</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.28565439758531075</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-2.0749097865310207E-2</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.3099506076918823E-2</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-8.8291402734008595E-2</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.26526554299322558</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.17184416343834519</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.11039639471057883</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.3490432889793913</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.230512585621786</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.65848458828057921</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-4.7293437120617066E-2</v>
       </c>
+      <c r="AM29" s="16">
+        <f t="shared" ref="AM29" si="11">(AM28/AL28)-1</f>
+        <v>0.31792761704873085</v>
+      </c>
+      <c r="AN29" s="16">
+        <f t="shared" ref="AN29" si="12">(AN28/AM28)-1</f>
+        <v>0.1423928498882796</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" ref="AO29" si="13">(AO28/AN28)-1</f>
+        <v>0.15184921763869141</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" ref="AP29" si="14">(AP28/AO28)-1</f>
+        <v>3.4887310898425339E-2</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" ref="AQ29" si="15">(AQ28/AP28)-1</f>
+        <v>1.9988066825775697E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7017,8 +7154,28 @@
       <c r="AL30" s="2">
         <v>0.2712</v>
       </c>
+      <c r="AM30" s="59">
+        <f>AM28/AM3</f>
+        <v>0.33467029231815093</v>
+      </c>
+      <c r="AN30" s="59">
+        <f t="shared" ref="AN30:AQ30" si="16">AN28/AN3</f>
+        <v>0.35040498442367601</v>
+      </c>
+      <c r="AO30" s="59">
+        <f t="shared" si="16"/>
+        <v>0.36848691695108077</v>
+      </c>
+      <c r="AP30" s="59">
+        <f t="shared" si="16"/>
+        <v>0.36835164835164835</v>
+      </c>
+      <c r="AQ30" s="59">
+        <f t="shared" si="16"/>
+        <v>0.36842672413793104</v>
+      </c>
     </row>
-    <row r="31" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7133,8 +7290,23 @@
       <c r="AL31" s="12">
         <v>14.34</v>
       </c>
+      <c r="AM31" s="60">
+        <v>19.7</v>
+      </c>
+      <c r="AN31" s="60">
+        <v>22.5</v>
+      </c>
+      <c r="AO31" s="60">
+        <v>25.92</v>
+      </c>
+      <c r="AP31" s="60">
+        <v>26.82</v>
+      </c>
+      <c r="AQ31" s="60">
+        <v>27.36</v>
+      </c>
     </row>
-    <row r="32" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7492,143 +7664,143 @@
         <v>0.12498495255623604</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AL35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AL35" si="17">(D34-C34)/C34</f>
         <v>0.1428571470963266</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.9417618286090318E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.8553570687645812E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.0812861505243117E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.2994767028497349E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.9225569794653872E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.0873169985083698E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.6238894174130798E-3</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.0435431894993321E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.11396972311553848</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.8377693282636248E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-6.8450528935905417E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.8866610971874129E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.0404281972440498E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.5620943377134023E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.34884154460719041</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.8717447531047007E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7.5583305948077554E-3</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-0.11495705588171341</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-0.11634548944337812</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-0.14205532772641968</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.2091629028011261E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-7.110054124979498E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-0.11741855742915158</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-9.8154446333900164E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.3499986135374204E-3</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.9347514603769423E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-6.4679899036255165E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-9.2305805145818636E-3</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.9499814287482977E-3</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.3028376492479451E-2</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.8415651058370749E-2</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.1949560969168813E-2</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.2450888681010289E-2</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-9.9555707450444286E-2</v>
       </c>
     </row>
@@ -12741,151 +12913,151 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AL80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AL80" si="18">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.1605983495445793E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.8572938183055036E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.5012788796852585E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.1384207810792951E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.4770608142644231E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.6087061224231132E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.4016483444427089E-2</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.2981360539895337E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.5676931972635869E-2</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.2460834402770041E-2</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.1523330658237391E-2</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.2365016121282724E-2</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>8.5418856757430106E-2</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>8.375627146456395E-2</v>
       </c>
     </row>
@@ -13236,10 +13408,10 @@
       <c r="AL83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS83" s="62" t="s">
+      <c r="AS83" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="AT83" s="63"/>
+      <c r="AT83" s="68"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13356,10 +13528,10 @@
       <c r="AL84" s="1">
         <v>-2802000</v>
       </c>
-      <c r="AS84" s="64" t="s">
+      <c r="AS84" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="AT84" s="65"/>
+      <c r="AT84" s="70"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13845,10 +14017,10 @@
       <c r="AL88" s="1">
         <v>-6029000</v>
       </c>
-      <c r="AS88" s="33" t="s">
+      <c r="AS88" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="AT88" s="34">
+      <c r="AT88" s="32">
         <f>AT85/(AT86+AT87)</f>
         <v>3.6066268179037041E-2</v>
       </c>
@@ -13858,151 +14030,151 @@
         <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AL89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AL89" si="19">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="E89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.9215686274509803E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.1446540880503145E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.14553990610328638</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>8.5457271364317841E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.8693244739756366E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>9.3942054433713784E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>8.8096839273705443E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.10904522613065326</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.3951120162932792E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.6088840736728063E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7.582596439418092E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7.292767994944524E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.9594615945242062E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.9099230090815914E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.2857268275828869E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.0551641414299503E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.8054678839059081E-2</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.765021234779309E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.058366740865848E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.2129737528439043E-2</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.8817306565088675E-2</v>
       </c>
       <c r="AA89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.2624470898830532E-2</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.7673171964879966E-2</v>
       </c>
       <c r="AC89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.2479917788024386E-2</v>
       </c>
       <c r="AD89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.5957210846847533E-2</v>
       </c>
       <c r="AE89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.980396551662472E-2</v>
       </c>
       <c r="AF89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.4926363467202811E-2</v>
       </c>
       <c r="AG89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.1270821063562508E-2</v>
       </c>
       <c r="AH89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.0314535460907045E-2</v>
       </c>
       <c r="AI89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.0671796759369802E-2</v>
       </c>
       <c r="AJ89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.6985667739358948E-2</v>
       </c>
       <c r="AK89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.7491781462869224E-3</v>
       </c>
       <c r="AL89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.3775004174925755E-3</v>
       </c>
       <c r="AS89" s="23" t="s">
@@ -14251,10 +14423,10 @@
       <c r="AL91" s="1">
         <v>-9963000</v>
       </c>
-      <c r="AS91" s="33" t="s">
+      <c r="AS91" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="AT91" s="34">
+      <c r="AT91" s="32">
         <f>AT89/AT90</f>
         <v>0.20743928081152704</v>
       </c>
@@ -14374,10 +14546,10 @@
       <c r="AL92" s="1">
         <v>8063000</v>
       </c>
-      <c r="AS92" s="35" t="s">
+      <c r="AS92" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="AT92" s="36">
+      <c r="AT92" s="34">
         <f>AT88*(1-AT91)</f>
         <v>2.8584707446421932E-2</v>
       </c>
@@ -14497,10 +14669,10 @@
       <c r="AL93" s="1">
         <v>2258000</v>
       </c>
-      <c r="AS93" s="64" t="s">
+      <c r="AS93" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="AT93" s="65"/>
+      <c r="AT93" s="70"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14620,7 +14792,7 @@
       <c r="AS94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AT94" s="37">
+      <c r="AT94" s="35">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -14739,12 +14911,12 @@
       <c r="AL95" s="1">
         <v>-988250000</v>
       </c>
-      <c r="AS95" s="57" t="s">
+      <c r="AS95" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="AT95" s="58" cm="1">
+      <c r="AT95" s="56" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.2622</v>
+        <v>1.2624</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14865,7 +15037,7 @@
       <c r="AS96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AT96" s="37">
+      <c r="AT96" s="35">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14984,12 +15156,12 @@
       <c r="AL97" s="1">
         <v>-1104180000</v>
       </c>
-      <c r="AS97" s="35" t="s">
+      <c r="AS97" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="AT97" s="36">
+      <c r="AT97" s="34">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.5287709999999998E-2</v>
+        <v>9.5296320000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15107,10 +15279,10 @@
       <c r="AL98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS98" s="64" t="s">
+      <c r="AS98" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AT98" s="65"/>
+      <c r="AT98" s="70"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15350,12 +15522,12 @@
       <c r="AL100" s="10">
         <v>-547165000</v>
       </c>
-      <c r="AS100" s="33" t="s">
+      <c r="AS100" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="AT100" s="34">
+      <c r="AT100" s="32">
         <f>AT99/AT103</f>
-        <v>9.402178997393075E-2</v>
+        <v>8.8255240463989498E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15473,12 +15645,12 @@
       <c r="AL101" s="1">
         <v>-18766000</v>
       </c>
-      <c r="AS101" s="57" t="s">
+      <c r="AS101" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="AT101" s="50" cm="1">
+      <c r="AT101" s="48" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>18425927788</v>
+        <v>19754811979</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15596,12 +15768,12 @@
       <c r="AL102" s="10">
         <v>-62152000</v>
       </c>
-      <c r="AS102" s="33" t="s">
+      <c r="AS102" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="AT102" s="34">
+      <c r="AT102" s="32">
         <f>AT101/AT103</f>
-        <v>0.90597821002606926</v>
+        <v>0.91174475953601053</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15719,12 +15891,12 @@
       <c r="AL103" s="1">
         <v>195354000</v>
       </c>
-      <c r="AS103" s="35" t="s">
+      <c r="AS103" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="AT103" s="38">
+      <c r="AT103" s="36">
         <f>AT99+AT101</f>
-        <v>20338157788</v>
+        <v>21667041979</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15842,10 +16014,10 @@
       <c r="AL104" s="11">
         <v>133202000</v>
       </c>
-      <c r="AS104" s="64" t="s">
+      <c r="AS104" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="AT104" s="65"/>
+      <c r="AT104" s="70"/>
     </row>
     <row r="105" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15873,141 +16045,151 @@
         <v>0.12000000000000011</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:AL105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:AL105" si="20">(H106/G106)-1</f>
         <v>-1.6071428571428572</v>
       </c>
       <c r="I105" s="15" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="J105" s="15" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-0.79032258064516125</v>
       </c>
       <c r="L105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.5384615384615383</v>
       </c>
       <c r="M105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-0.33333333333333337</v>
       </c>
       <c r="N105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4.8181818181818183</v>
       </c>
       <c r="O105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-5.46875E-2</v>
       </c>
       <c r="P105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-0.4191322314049587</v>
       </c>
       <c r="Q105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2.3104503094543642</v>
       </c>
       <c r="R105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.7134200064467604</v>
       </c>
       <c r="S105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.95979130609275831</v>
       </c>
       <c r="T105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.12596152615479128</v>
       </c>
       <c r="U105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.12346471908835155</v>
       </c>
       <c r="V105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-0.15194669850456322</v>
       </c>
       <c r="W105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-6.6842447489456114E-2</v>
       </c>
       <c r="X105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-0.12822512593653312</v>
       </c>
       <c r="Y105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>9.5695534208404265E-3</v>
       </c>
       <c r="Z105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-0.35843835118939527</v>
       </c>
       <c r="AA105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.38277084017344642</v>
       </c>
       <c r="AB105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-0.14633687037400933</v>
       </c>
       <c r="AC105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7.3947613247268951E-2</v>
       </c>
       <c r="AD105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.4507425897314532</v>
       </c>
       <c r="AE105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-0.33529093102853902</v>
       </c>
       <c r="AF105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.51199318379669934</v>
       </c>
       <c r="AG105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.26064852813269468</v>
       </c>
       <c r="AH105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-6.8328021145100504E-2</v>
       </c>
       <c r="AI105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.23267432582541092</v>
       </c>
       <c r="AJ105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.45081207772592857</v>
       </c>
       <c r="AK105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.21380935301099058</v>
       </c>
       <c r="AL105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.2094256308739022</v>
       </c>
-      <c r="AM105" s="15"/>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
+      <c r="AM105" s="63">
+        <v>647200000</v>
+      </c>
+      <c r="AN105" s="63">
+        <v>715300000</v>
+      </c>
+      <c r="AO105" s="63">
+        <v>828200000</v>
+      </c>
+      <c r="AP105" s="63">
+        <v>863800000</v>
+      </c>
+      <c r="AQ105" s="63">
+        <v>882200000</v>
+      </c>
       <c r="AR105" s="15"/>
       <c r="AS105" s="25" t="s">
         <v>108</v>
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>8.9016174303276907E-2</v>
+        <v>8.9408670592343475E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16125,33 +16307,33 @@
       <c r="AL106" s="1">
         <v>503421000</v>
       </c>
-      <c r="AM106" s="39">
+      <c r="AM106" s="37">
         <f>AL106*(1+$AT$106)</f>
         <v>534585184.94209158</v>
       </c>
-      <c r="AN106" s="39">
-        <f t="shared" ref="AN106:AQ106" si="9">AM106*(1+$AT$106)</f>
+      <c r="AN106" s="37">
+        <f t="shared" ref="AN106:AQ106" si="21">AM106*(1+$AT$106)</f>
         <v>567678583.05388582</v>
       </c>
-      <c r="AO106" s="39">
-        <f t="shared" si="9"/>
+      <c r="AO106" s="37">
+        <f t="shared" si="21"/>
         <v>602820621.92384911</v>
       </c>
-      <c r="AP106" s="39">
-        <f t="shared" si="9"/>
+      <c r="AP106" s="37">
+        <f t="shared" si="21"/>
         <v>640138122.28347158</v>
       </c>
-      <c r="AQ106" s="39">
-        <f t="shared" si="9"/>
+      <c r="AQ106" s="37">
+        <f t="shared" si="21"/>
         <v>679765755.6784339</v>
       </c>
-      <c r="AR106" s="40" t="s">
+      <c r="AR106" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="AS106" s="41" t="s">
+      <c r="AS106" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="AT106" s="42">
+      <c r="AT106" s="40">
         <f>(SUM(AM4:AQ4)/5)</f>
         <v>6.1904817125411161E-2</v>
       </c>
@@ -16195,139 +16377,139 @@
       <c r="AJ107" s="13"/>
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
-      <c r="AM107" s="40"/>
-      <c r="AN107" s="40"/>
-      <c r="AO107" s="40"/>
-      <c r="AP107" s="40"/>
-      <c r="AQ107" s="43">
-        <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>10884122757.312731</v>
-      </c>
-      <c r="AR107" s="44" t="s">
+      <c r="AM107" s="38"/>
+      <c r="AN107" s="38"/>
+      <c r="AO107" s="38"/>
+      <c r="AP107" s="38"/>
+      <c r="AQ107" s="64">
+        <f>AQ105*(1+AT107)/(AT108-AT107)</f>
+        <v>14039336500.565691</v>
+      </c>
+      <c r="AR107" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="AS107" s="45" t="s">
+      <c r="AS107" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="AT107" s="46">
+      <c r="AT107" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="43">
-        <f t="shared" ref="AM108:AO108" si="10">AM107+AM106</f>
+      <c r="AM108" s="41">
+        <f t="shared" ref="AM108:AO108" si="22">AM107+AM106</f>
         <v>534585184.94209158</v>
       </c>
-      <c r="AN108" s="43">
-        <f t="shared" si="10"/>
+      <c r="AN108" s="41">
+        <f t="shared" si="22"/>
         <v>567678583.05388582</v>
       </c>
-      <c r="AO108" s="43">
-        <f t="shared" si="10"/>
+      <c r="AO108" s="41">
+        <f t="shared" si="22"/>
         <v>602820621.92384911</v>
       </c>
-      <c r="AP108" s="43">
+      <c r="AP108" s="41">
         <f>AP107+AP106</f>
         <v>640138122.28347158</v>
       </c>
-      <c r="AQ108" s="43">
-        <f>AQ107+AQ106</f>
-        <v>11563888512.991165</v>
-      </c>
-      <c r="AR108" s="44" t="s">
+      <c r="AQ108" s="64">
+        <f>AQ107+AQ105</f>
+        <v>14921536500.565691</v>
+      </c>
+      <c r="AR108" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="AS108" s="47" t="s">
+      <c r="AS108" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="AT108" s="48">
+      <c r="AT108" s="46">
         <f>AT105</f>
-        <v>8.9016174303276907E-2</v>
+        <v>8.9408670592343475E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="60" t="s">
+      <c r="AM109" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="AN109" s="61"/>
+      <c r="AN109" s="66"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="49" t="s">
+      <c r="AM110" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="AN110" s="50">
+      <c r="AN110" s="48">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>9441181740.053112</v>
+        <v>11614079546.839544</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="49" t="s">
+      <c r="AM111" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="AN111" s="50">
+      <c r="AN111" s="48">
         <f>AL40</f>
         <v>133202000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="49" t="s">
+      <c r="AM112" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="AN112" s="50">
+      <c r="AN112" s="48">
         <f>AT99</f>
         <v>1912230000</v>
       </c>
     </row>
     <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="49" t="s">
+      <c r="AM113" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="AN113" s="50">
+      <c r="AN113" s="48">
         <f>AN110+AN111-AN112</f>
-        <v>7662153740.053112</v>
+        <v>9835051546.8395443</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="49" t="s">
+      <c r="AM114" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="AN114" s="51">
+      <c r="AN114" s="49">
         <f>AL34*(1+(5*AR16))</f>
         <v>21198791.334987625</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="52" t="s">
+      <c r="AM115" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="AN115" s="53">
+      <c r="AN115" s="51">
         <f>AN113/AN114</f>
-        <v>361.44295299548901</v>
+        <v>463.94397640054348</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="49" t="s">
+      <c r="AM116" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="AN116" s="59" cm="1">
+      <c r="AN116" s="57" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>737.24</v>
+        <v>790.41</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="54" t="s">
+      <c r="AM117" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="AN117" s="55">
+      <c r="AN117" s="53">
         <f>AN115/AN116-1</f>
-        <v>-0.50973502116612091</v>
+        <v>-0.41303377183924361</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="54" t="s">
+      <c r="AM118" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="AN118" s="56" t="str">
+      <c r="AN118" s="54" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Financial Services/Fair Isaac Corporation.xlsx
+++ b/Financial Services/Fair Isaac Corporation.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458F6C6-AE95-E244-811F-53D00CCBC9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4918852-5A41-2749-9526-EAC42A47923A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>Income Tax Expense</t>
-  </si>
-  <si>
-    <t>FCF Growth YoY</t>
   </si>
   <si>
     <t>WACC</t>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -560,17 +554,39 @@
   <si>
     <t>Forward P/FCF</t>
   </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -739,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -845,62 +861,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -917,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -959,107 +922,97 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1111,7 +1064,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>FICO</a:t>
+              <a:t>Fair</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Isaac Corporation</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1151,9 +1108,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.6244224422442242E-2"/>
-          <c:y val="0.12463979613167823"/>
+          <c:y val="0.14156014762114127"/>
           <c:w val="0.85699009900990086"/>
-          <c:h val="0.71133937903779731"/>
+          <c:h val="0.68426662403240202"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1511,11 +1468,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1555,7 +1512,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AL$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AL$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="37"/>
@@ -2393,13 +2350,13 @@
       <xdr:col>40</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2425,6 +2382,50 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2547,13 +2548,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>796.5</v>
-    <v>371.52</v>
-    <v>1.2624</v>
-    <v>-1.21</v>
-    <v>-1.529E-3</v>
-    <v>9.59</v>
-    <v>1.2133E-2</v>
+    <v>815.64</v>
+    <v>389.83499999999998</v>
+    <v>1.2435</v>
+    <v>11.39</v>
+    <v>1.4558E-2</v>
+    <v>-11.39</v>
+    <v>-1.4349000000000001E-2</v>
     <v>USD</v>
     <v>Fair Isaac Corporation is an applied analytics company. The Company operates through two segments: Scores and Software. The Scores segment includes its business-to-business (B2B) scoring solutions and services which give its clients access to predictive credit and other scores that can be integrated into their transaction streams and decision-making processes. This segment also includes its business-to-consumer (B2C) scoring solutions, including its myFICO.com subscription offerings. The Software segment includes pre-configured analytic and decision management solutions designed for a specific type of business need or process, such as account origination, customer management, customer engagement, fraud detection, financial crimes compliance and marketing as well as associated professional services. This segment also includes FICO Platform, a modular software offering designed to support advanced analytic and decision use cases, as well as stand-alone analytic and decisioning software.</v>
     <v>3320</v>
@@ -2561,25 +2562,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 West Mendenhall, Suites 105, BOZEMAN, MT, 59715 US</v>
-    <v>796.5</v>
+    <v>798.13</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45076.958333378905</v>
+    <v>45114.958333356248</v>
     <v>0</v>
-    <v>783.96</v>
-    <v>19754811979</v>
+    <v>781.68</v>
+    <v>19839290000</v>
     <v>FAIR ISAAC CORPORATION</v>
     <v>FAIR ISAAC CORPORATION</v>
-    <v>795</v>
-    <v>52.7911</v>
-    <v>791.62</v>
-    <v>790.41</v>
-    <v>800</v>
+    <v>781.68</v>
+    <v>52.9358</v>
+    <v>782.4</v>
+    <v>793.79</v>
+    <v>782.4</v>
     <v>24993120</v>
     <v>FICO</v>
     <v>FAIR ISAAC CORPORATION (XNYS:FICO)</v>
-    <v>187004</v>
-    <v>220730</v>
+    <v>145460</v>
+    <v>194579</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2744,9 +2745,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3167,10 +3168,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO9" sqref="AO9"/>
+      <selection pane="bottomRight" activeCell="AP14" sqref="AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3295,19 +3296,19 @@
       <c r="AL1" s="8">
         <v>2022</v>
       </c>
-      <c r="AM1" s="27">
+      <c r="AM1" s="23">
         <v>2023</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2024</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2025</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2026</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3316,124 +3317,124 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9"/>
       <c r="AQ2" s="9"/>
@@ -3553,37 +3554,37 @@
       <c r="AL3" s="1">
         <v>1377270000</v>
       </c>
-      <c r="AM3" s="28">
-        <v>1471000000</v>
-      </c>
-      <c r="AN3" s="28">
-        <v>1605000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>1758000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>1820000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>1856000000</v>
+      <c r="AM3" s="24">
+        <v>1481000000</v>
+      </c>
+      <c r="AN3" s="24">
+        <v>1623000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>1781000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>1943000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>2119000000</v>
       </c>
       <c r="AR3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AS3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AT3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3732,23 +3733,23 @@
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="0"/>
-        <v>6.8054920240766092E-2</v>
+        <v>7.5315660691077202E-2</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>9.1094493541808319E-2</v>
+        <v>9.5881161377447732E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>9.5327102803738351E-2</v>
+        <v>9.7350585335797879E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>3.5267349260523329E-2</v>
+        <v>9.0960134755755151E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>1.978021978021971E-2</v>
+        <v>9.05815748841996E-2</v>
       </c>
       <c r="AR4" s="17">
         <f>(AL4+AK4+AJ4)/3</f>
@@ -3763,7 +3764,7 @@
         <v>0.2805679122605827</v>
       </c>
       <c r="AU4" s="17">
-        <f>(AL105+AK105+AJ105)/3</f>
+        <f>(AL106+AK106+AJ106)/3</f>
         <v>0.29134902053694045</v>
       </c>
     </row>
@@ -3999,16 +4000,16 @@
         <v>1075096000</v>
       </c>
       <c r="AR6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AS6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AT6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4139,7 +4140,7 @@
         <v>0.2712</v>
       </c>
       <c r="AU7" s="20">
-        <f>AL106/AL3</f>
+        <f>AL107/AL3</f>
         <v>0.36552092182360757</v>
       </c>
     </row>
@@ -4148,28 +4149,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1">
         <v>4000000</v>
@@ -4261,7 +4262,7 @@
     </row>
     <row r="9" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4412,16 +4413,16 @@
         <v>0.10655717470067598</v>
       </c>
       <c r="AR9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AS9" s="19" t="s">
+      <c r="AT9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AU9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4429,31 +4430,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1">
         <v>46300000</v>
@@ -4534,10 +4535,10 @@
         <v>420930000</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR10" s="17">
         <f>AL9</f>
@@ -4561,115 +4562,115 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -4788,21 +4789,21 @@
         <v>383863000</v>
       </c>
       <c r="AR12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AS12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AT12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -5201,16 +5202,16 @@
         <v>532682000</v>
       </c>
       <c r="AR15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AS15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AT15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5328,21 +5329,21 @@
       <c r="AL16" s="1">
         <v>834856000</v>
       </c>
-      <c r="AR16" s="29">
+      <c r="AR16" s="25">
         <f>(AL35+AK35+AJ35+AI35+AH35)/5</f>
         <v>-3.9080036930294715E-2</v>
       </c>
-      <c r="AS16" s="71">
+      <c r="AS16" s="37">
         <f>AT101/AL3</f>
-        <v>14.343456242421603</v>
-      </c>
-      <c r="AT16" s="71">
+        <v>14.404793540845295</v>
+      </c>
+      <c r="AT16" s="37">
         <f>AT101/AL28</f>
-        <v>52.885257519254914</v>
-      </c>
-      <c r="AU16" s="72">
-        <f>AT101/AL106</f>
-        <v>39.241136104771158</v>
+        <v>53.111412134143237</v>
+      </c>
+      <c r="AU16" s="38">
+        <f>AT101/AL107</f>
+        <v>39.408944005116993</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5350,73 +5351,73 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1">
         <v>25481000</v>
@@ -5577,16 +5578,16 @@
         <v>20465000</v>
       </c>
       <c r="AR18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AS18" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT18" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AU18" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5704,41 +5705,41 @@
       <c r="AL19" s="10">
         <v>560741000</v>
       </c>
-      <c r="AM19" s="61">
-        <v>771900000</v>
-      </c>
-      <c r="AN19" s="61">
-        <v>867100000</v>
-      </c>
-      <c r="AO19" s="61">
-        <v>990600000</v>
-      </c>
-      <c r="AP19" s="61">
-        <v>1025000000</v>
-      </c>
-      <c r="AQ19" s="61">
-        <v>1046000000</v>
-      </c>
-      <c r="AR19" s="30">
+      <c r="AM19" s="33">
+        <v>774300000</v>
+      </c>
+      <c r="AN19" s="33">
+        <v>882100000</v>
+      </c>
+      <c r="AO19" s="33">
+        <v>1004000000</v>
+      </c>
+      <c r="AP19" s="33">
+        <v>1115000000</v>
+      </c>
+      <c r="AQ19" s="33">
+        <v>1237000000</v>
+      </c>
+      <c r="AR19" s="26">
         <f>AL40-AL56-AL61</f>
         <v>-1779028000</v>
       </c>
-      <c r="AS19" s="71">
+      <c r="AS19" s="37">
         <f>AT101/AM3</f>
-        <v>13.42951188239293</v>
-      </c>
-      <c r="AT19" s="71">
+        <v>13.395874409182985</v>
+      </c>
+      <c r="AT19" s="37">
         <f>AT101/AM28</f>
-        <v>40.127588825919155</v>
-      </c>
-      <c r="AU19" s="72">
+        <v>40.055097920452248</v>
+      </c>
+      <c r="AU19" s="38">
         <f>AT101/AM105</f>
-        <v>30.523504293881334</v>
+        <v>44.564027157582856</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5887,26 +5888,26 @@
       </c>
       <c r="AM20" s="16">
         <f t="shared" ref="AM20" si="4">(AM19/AL19)-1</f>
-        <v>0.37657135825630728</v>
+        <v>0.38085140911757831</v>
       </c>
       <c r="AN20" s="16">
         <f t="shared" ref="AN20" si="5">(AN19/AM19)-1</f>
-        <v>0.12333203782873436</v>
+        <v>0.13922252356967579</v>
       </c>
       <c r="AO20" s="16">
         <f t="shared" ref="AO20" si="6">(AO19/AN19)-1</f>
-        <v>0.14242878560719641</v>
+        <v>0.13819294864527842</v>
       </c>
       <c r="AP20" s="16">
         <f t="shared" ref="AP20" si="7">(AP19/AO19)-1</f>
-        <v>3.4726428427215739E-2</v>
+        <v>0.11055776892430269</v>
       </c>
       <c r="AQ20" s="16">
         <f t="shared" ref="AQ20" si="8">(AQ19/AP19)-1</f>
-        <v>2.0487804878048799E-2</v>
+        <v>0.10941704035874444</v>
       </c>
     </row>
-    <row r="21" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -6021,25 +6022,31 @@
       <c r="AL21" s="2">
         <v>0.40710000000000002</v>
       </c>
-      <c r="AM21" s="62">
+      <c r="AM21" s="34">
         <f>AM19/AM3</f>
-        <v>0.52474507138001358</v>
-      </c>
-      <c r="AN21" s="62">
+        <v>0.52282241728561785</v>
+      </c>
+      <c r="AN21" s="34">
         <f t="shared" ref="AN21:AQ21" si="9">AN19/AN3</f>
-        <v>0.54024922118380059</v>
-      </c>
-      <c r="AO21" s="62">
+        <v>0.54349969192852743</v>
+      </c>
+      <c r="AO21" s="34">
         <f t="shared" si="9"/>
-        <v>0.56348122866894201</v>
-      </c>
-      <c r="AP21" s="62">
+        <v>0.56372824256035936</v>
+      </c>
+      <c r="AP21" s="34">
         <f t="shared" si="9"/>
-        <v>0.56318681318681318</v>
-      </c>
-      <c r="AQ21" s="62">
+        <v>0.57385486361296967</v>
+      </c>
+      <c r="AQ21" s="34">
         <f t="shared" si="9"/>
-        <v>0.56357758620689657</v>
+        <v>0.58376592732420951</v>
+      </c>
+      <c r="AT21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU21" s="19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6157,6 +6164,14 @@
       <c r="AL22" s="10">
         <v>542414000</v>
       </c>
+      <c r="AT22" s="63">
+        <f>(-1*AL98)/AT101</f>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="64">
+        <f>AL107/AT101</f>
+        <v>2.5374950414052116E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -6853,25 +6868,25 @@
       <c r="AL28" s="11">
         <v>373541000</v>
       </c>
-      <c r="AM28" s="58">
-        <v>492300000</v>
-      </c>
-      <c r="AN28" s="58">
-        <v>562400000</v>
-      </c>
-      <c r="AO28" s="58">
-        <v>647800000</v>
-      </c>
-      <c r="AP28" s="58">
-        <v>670400000</v>
-      </c>
-      <c r="AQ28" s="58">
-        <v>683800000</v>
+      <c r="AM28" s="30">
+        <v>495300000</v>
+      </c>
+      <c r="AN28" s="30">
+        <v>568300000</v>
+      </c>
+      <c r="AO28" s="30">
+        <v>660000000</v>
+      </c>
+      <c r="AP28" s="30">
+        <v>755000000</v>
+      </c>
+      <c r="AQ28" s="30">
+        <v>857000000</v>
       </c>
     </row>
     <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -7020,23 +7035,23 @@
       </c>
       <c r="AM29" s="16">
         <f t="shared" ref="AM29" si="11">(AM28/AL28)-1</f>
-        <v>0.31792761704873085</v>
+        <v>0.32595886395335461</v>
       </c>
       <c r="AN29" s="16">
         <f t="shared" ref="AN29" si="12">(AN28/AM28)-1</f>
-        <v>0.1423928498882796</v>
+        <v>0.14738542297597412</v>
       </c>
       <c r="AO29" s="16">
         <f t="shared" ref="AO29" si="13">(AO28/AN28)-1</f>
-        <v>0.15184921763869141</v>
+        <v>0.16135843744501144</v>
       </c>
       <c r="AP29" s="16">
         <f t="shared" ref="AP29" si="14">(AP28/AO28)-1</f>
-        <v>3.4887310898425339E-2</v>
+        <v>0.14393939393939403</v>
       </c>
       <c r="AQ29" s="16">
         <f t="shared" ref="AQ29" si="15">(AQ28/AP28)-1</f>
-        <v>1.9988066825775697E-2</v>
+        <v>0.13509933774834426</v>
       </c>
     </row>
     <row r="30" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7154,25 +7169,25 @@
       <c r="AL30" s="2">
         <v>0.2712</v>
       </c>
-      <c r="AM30" s="59">
+      <c r="AM30" s="31">
         <f>AM28/AM3</f>
-        <v>0.33467029231815093</v>
-      </c>
-      <c r="AN30" s="59">
+        <v>0.33443619176232275</v>
+      </c>
+      <c r="AN30" s="31">
         <f t="shared" ref="AN30:AQ30" si="16">AN28/AN3</f>
-        <v>0.35040498442367601</v>
-      </c>
-      <c r="AO30" s="59">
+        <v>0.35015403573629084</v>
+      </c>
+      <c r="AO30" s="31">
         <f t="shared" si="16"/>
-        <v>0.36848691695108077</v>
-      </c>
-      <c r="AP30" s="59">
+        <v>0.37057832678270636</v>
+      </c>
+      <c r="AP30" s="31">
         <f t="shared" si="16"/>
-        <v>0.36835164835164835</v>
-      </c>
-      <c r="AQ30" s="59">
+        <v>0.38857436953165209</v>
+      </c>
+      <c r="AQ30" s="31">
         <f t="shared" si="16"/>
-        <v>0.36842672413793104</v>
+        <v>0.4044360547428032</v>
       </c>
     </row>
     <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7290,20 +7305,20 @@
       <c r="AL31" s="12">
         <v>14.34</v>
       </c>
-      <c r="AM31" s="60">
-        <v>19.7</v>
-      </c>
-      <c r="AN31" s="60">
-        <v>22.5</v>
-      </c>
-      <c r="AO31" s="60">
-        <v>25.92</v>
-      </c>
-      <c r="AP31" s="60">
-        <v>26.82</v>
-      </c>
-      <c r="AQ31" s="60">
-        <v>27.36</v>
+      <c r="AM31" s="32">
+        <v>19.82</v>
+      </c>
+      <c r="AN31" s="32">
+        <v>22.74</v>
+      </c>
+      <c r="AO31" s="32">
+        <v>26.41</v>
+      </c>
+      <c r="AP31" s="32">
+        <v>30.21</v>
+      </c>
+      <c r="AQ31" s="32">
+        <v>34.29</v>
       </c>
     </row>
     <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7656,7 +7671,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7809,115 +7824,115 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -7925,115 +7940,115 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -8157,43 +8172,43 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1">
         <v>5200000</v>
@@ -8238,34 +8253,34 @@
         <v>22008000</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ39" s="1">
         <v>25513000</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -8517,103 +8532,103 @@
         <v>100000</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1">
         <v>5600000</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1">
         <v>22000000</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -8969,64 +8984,64 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1">
         <v>695162000</v>
@@ -9085,25 +9100,25 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1">
         <v>3800000</v>
@@ -9201,25 +9216,25 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1">
         <v>3800000</v>
@@ -9317,61 +9332,61 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1">
         <v>59000000</v>
@@ -9433,49 +9448,49 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1">
         <v>5504000</v>
@@ -9781,115 +9796,115 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10013,16 +10028,16 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1">
         <v>400000</v>
@@ -10129,43 +10144,43 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1">
         <v>5200000</v>
@@ -10180,13 +10195,13 @@
         <v>184377000</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1">
         <v>400000000</v>
@@ -10195,10 +10210,10 @@
         <v>390963000</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z56" s="1">
         <v>8000000</v>
@@ -10245,82 +10260,82 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB57" s="1">
         <v>11754000</v>
@@ -10329,31 +10344,31 @@
         <v>6821000</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10361,52 +10376,52 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1">
         <v>17921000</v>
@@ -10709,22 +10724,22 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1">
         <v>2700000</v>
@@ -10751,10 +10766,10 @@
         <v>400000</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R61" s="1">
         <v>139922000</v>
@@ -10769,7 +10784,7 @@
         <v>400000000</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W61" s="1">
         <v>170000000</v>
@@ -10825,115 +10840,115 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10959,97 +10974,97 @@
         <v>1000000</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1">
         <v>2700000</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -11072,13 +11087,13 @@
         <v>200000</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1">
         <v>1200000</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1">
         <v>3900000</v>
@@ -11289,115 +11304,115 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -11521,43 +11536,43 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1">
         <v>100000</v>
@@ -12217,115 +12232,115 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -12333,115 +12348,115 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -12449,16 +12464,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1">
         <v>1600000</v>
@@ -12565,16 +12580,16 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1">
         <v>1300000</v>
@@ -12681,16 +12696,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>-1000000</v>
@@ -12797,73 +12812,73 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1">
         <v>19935000</v>
@@ -12910,7 +12925,7 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:AL80" si="18">B79/B3</f>
@@ -13066,16 +13081,16 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1">
         <v>1600000</v>
@@ -13182,73 +13197,73 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1">
         <v>31316000</v>
@@ -13298,40 +13313,40 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1">
         <v>100000</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1">
         <v>-3800000</v>
@@ -13340,151 +13355,151 @@
         <v>-4900000</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS83" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT83" s="68"/>
+        <v>91</v>
+      </c>
+      <c r="AS83" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT83" s="67"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1">
         <v>-2519000</v>
@@ -13528,26 +13543,26 @@
       <c r="AL84" s="1">
         <v>-2802000</v>
       </c>
-      <c r="AS84" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT84" s="70"/>
+      <c r="AS84" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT84" s="68"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1">
         <v>17100000</v>
@@ -13648,10 +13663,10 @@
       <c r="AL85" s="1">
         <v>19910000</v>
       </c>
-      <c r="AS85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT85" s="24">
+      <c r="AS85" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT85" s="41">
         <f>AL17</f>
         <v>68967000</v>
       </c>
@@ -13661,22 +13676,22 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H86" s="1">
         <v>-300000</v>
@@ -13771,10 +13786,10 @@
       <c r="AL86" s="1">
         <v>28184000</v>
       </c>
-      <c r="AS86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT86" s="24">
+      <c r="AS86" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT86" s="41">
         <f>AL56</f>
         <v>49369000</v>
       </c>
@@ -13784,16 +13799,16 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10">
         <v>3500000</v>
@@ -13894,10 +13909,10 @@
       <c r="AL87" s="10">
         <v>509450000</v>
       </c>
-      <c r="AS87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT87" s="24">
+      <c r="AS87" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT87" s="41">
         <f>AL61</f>
         <v>1862861000</v>
       </c>
@@ -13907,16 +13922,16 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1">
         <v>-1000000</v>
@@ -14017,17 +14032,17 @@
       <c r="AL88" s="1">
         <v>-6029000</v>
       </c>
-      <c r="AS88" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT88" s="32">
+      <c r="AS88" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT88" s="43">
         <f>AT85/(AT86+AT87)</f>
         <v>3.6066268179037041E-2</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:AL89" si="19">(-1*B88)/B3</f>
@@ -14177,10 +14192,10 @@
         <f t="shared" si="19"/>
         <v>4.3775004174925755E-3</v>
       </c>
-      <c r="AS89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT89" s="24">
+      <c r="AS89" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT89" s="41">
         <f>AL27</f>
         <v>97768000</v>
       </c>
@@ -14190,55 +14205,55 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1">
         <v>-48620000</v>
@@ -14250,22 +14265,22 @@
         <v>-41312000</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X90" s="1">
         <v>-17755000</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB90" s="1">
         <v>-123779000</v>
@@ -14286,24 +14301,24 @@
         <v>-777000</v>
       </c>
       <c r="AH90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI90" s="1">
         <v>-15855000</v>
       </c>
       <c r="AJ90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK90" s="1">
         <v>147431000</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS90" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AT90" s="24">
+      <c r="AT90" s="41">
         <f>AL25</f>
         <v>471309000</v>
       </c>
@@ -14313,16 +14328,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-10700000</v>
@@ -14394,19 +14409,19 @@
         <v>-48067000</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH91" s="1">
         <v>-6050000</v>
@@ -14423,10 +14438,10 @@
       <c r="AL91" s="1">
         <v>-9963000</v>
       </c>
-      <c r="AS91" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT91" s="32">
+      <c r="AS91" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT91" s="43">
         <f>AT89/AT90</f>
         <v>0.20743928081152704</v>
       </c>
@@ -14436,22 +14451,22 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>8000000</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1">
         <v>12800000</v>
@@ -14520,16 +14535,16 @@
         <v>22000000</v>
       </c>
       <c r="AD92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH92" s="1">
         <v>23230000</v>
@@ -14546,10 +14561,10 @@
       <c r="AL92" s="1">
         <v>8063000</v>
       </c>
-      <c r="AS92" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT92" s="34">
+      <c r="AS92" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT92" s="43">
         <f>AT88*(1-AT91)</f>
         <v>2.8584707446421932E-2</v>
       </c>
@@ -14559,16 +14574,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>-500000</v>
@@ -14583,7 +14598,7 @@
         <v>-3400000</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1">
         <v>-2500000</v>
@@ -14601,10 +14616,10 @@
         <v>100000</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R93" s="1">
         <v>140499000</v>
@@ -14637,58 +14652,58 @@
         <v>140000</v>
       </c>
       <c r="AB93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ93" s="1">
         <v>55000</v>
       </c>
       <c r="AK93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL93" s="1">
         <v>2258000</v>
       </c>
-      <c r="AS93" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT93" s="70"/>
+      <c r="AS93" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT93" s="68"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10">
         <v>-4200000</v>
@@ -14789,11 +14804,12 @@
       <c r="AL94" s="10">
         <v>-5671000</v>
       </c>
-      <c r="AS94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT94" s="35">
-        <v>4.095E-2</v>
+      <c r="AS94" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT94" s="44">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14801,76 +14817,76 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z95" s="1">
         <v>-295000000</v>
@@ -14911,12 +14927,12 @@
       <c r="AL95" s="1">
         <v>-988250000</v>
       </c>
-      <c r="AS95" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT95" s="56" cm="1">
+      <c r="AS95" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT95" s="46" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.2624</v>
+        <v>1.2435</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14924,19 +14940,19 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1">
         <v>200000</v>
@@ -15029,15 +15045,15 @@
         <v>42258000</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT96" s="35">
+        <v>91</v>
+      </c>
+      <c r="AS96" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT96" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15046,37 +15062,37 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1">
         <v>-100000</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1">
         <v>-500000</v>
@@ -15156,12 +15172,12 @@
       <c r="AL97" s="1">
         <v>-1104180000</v>
       </c>
-      <c r="AS97" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT97" s="34">
+      <c r="AS97" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT97" s="43">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.5296320000000004E-2</v>
+        <v>9.4597120000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15169,16 +15185,16 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-500000</v>
@@ -15265,40 +15281,40 @@
         <v>-1238000</v>
       </c>
       <c r="AH98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS98" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT98" s="70"/>
+        <v>91</v>
+      </c>
+      <c r="AL98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS98" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT98" s="68"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1">
         <v>200000</v>
@@ -15346,7 +15362,7 @@
         <v>-154180000</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V99" s="1">
         <v>7094000</v>
@@ -15399,10 +15415,10 @@
       <c r="AL99" s="1">
         <v>1545265000</v>
       </c>
-      <c r="AS99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT99" s="24">
+      <c r="AS99" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT99" s="41">
         <f>AT86+AT87</f>
         <v>1912230000</v>
       </c>
@@ -15412,16 +15428,16 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10">
         <v>-300000</v>
@@ -15522,12 +15538,12 @@
       <c r="AL100" s="10">
         <v>-547165000</v>
       </c>
-      <c r="AS100" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT100" s="32">
+      <c r="AS100" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT100" s="43">
         <f>AT99/AT103</f>
-        <v>8.8255240463989498E-2</v>
+        <v>8.7912476921153102E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15535,58 +15551,58 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T101" s="1">
         <v>568000</v>
@@ -15645,12 +15661,12 @@
       <c r="AL101" s="1">
         <v>-18766000</v>
       </c>
-      <c r="AS101" s="55" t="s">
-        <v>142</v>
+      <c r="AS101" s="45" t="s">
+        <v>140</v>
       </c>
       <c r="AT101" s="48" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>19754811979</v>
+        <v>19839290000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15658,16 +15674,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10">
         <v>-300000</v>
@@ -15768,12 +15784,12 @@
       <c r="AL102" s="10">
         <v>-62152000</v>
       </c>
-      <c r="AS102" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT102" s="32">
+      <c r="AS102" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT102" s="43">
         <f>AT101/AT103</f>
-        <v>0.91174475953601053</v>
+        <v>0.91208752307884688</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15781,16 +15797,16 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1">
         <v>4200000</v>
@@ -15891,53 +15907,53 @@
       <c r="AL103" s="1">
         <v>195354000</v>
       </c>
-      <c r="AS103" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT103" s="36">
+      <c r="AS103" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT103" s="49">
         <f>AT99+AT101</f>
-        <v>21667041979</v>
+        <v>21751520000</v>
       </c>
     </row>
-    <row r="104" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11">
         <v>8300000</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N104" s="11">
         <v>14200000</v>
@@ -16014,437 +16030,552 @@
       <c r="AL104" s="11">
         <v>133202000</v>
       </c>
-      <c r="AS104" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT104" s="70"/>
+      <c r="AS104" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT104" s="68"/>
     </row>
-    <row r="105" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>160</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AK105" si="20">((B22*(1-$AT$91))+B77+B88+B81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>0.12000000000000011</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AL105" si="20">(H106/G106)-1</f>
-        <v>-1.6071428571428572</v>
-      </c>
-      <c r="I105" s="15" t="e">
+      <c r="C105" s="1" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J105" s="15" t="e">
+      <c r="D105" s="1" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K105" s="15">
+      <c r="E105" s="1" t="e">
         <f t="shared" si="20"/>
-        <v>-0.79032258064516125</v>
-      </c>
-      <c r="L105" s="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F105" s="1">
         <f t="shared" si="20"/>
-        <v>1.5384615384615383</v>
-      </c>
-      <c r="M105" s="15">
+        <v>2692560.7191884732</v>
+      </c>
+      <c r="G105" s="1">
         <f t="shared" si="20"/>
-        <v>-0.33333333333333337</v>
-      </c>
-      <c r="N105" s="15">
+        <v>3556938.2294842661</v>
+      </c>
+      <c r="H105" s="1">
         <f t="shared" si="20"/>
-        <v>4.8181818181818183</v>
-      </c>
-      <c r="O105" s="15">
+        <v>-561659.97254455183</v>
+      </c>
+      <c r="I105" s="1">
         <f t="shared" si="20"/>
-        <v>-5.46875E-2</v>
-      </c>
-      <c r="P105" s="15">
+        <v>1598997.8973454777</v>
+      </c>
+      <c r="J105" s="1">
         <f t="shared" si="20"/>
-        <v>-0.4191322314049587</v>
-      </c>
-      <c r="Q105" s="15">
+        <v>15322459.363177873</v>
+      </c>
+      <c r="K105" s="1">
         <f t="shared" si="20"/>
-        <v>2.3104503094543642</v>
-      </c>
-      <c r="R105" s="15">
+        <v>7471958.3118506111</v>
+      </c>
+      <c r="L105" s="1">
         <f t="shared" si="20"/>
-        <v>0.7134200064467604</v>
-      </c>
-      <c r="S105" s="15">
+        <v>11491700.137277242</v>
+      </c>
+      <c r="M105" s="1">
         <f t="shared" si="20"/>
-        <v>0.95979130609275831</v>
-      </c>
-      <c r="T105" s="15">
+        <v>13779539.113405429</v>
+      </c>
+      <c r="N105" s="1">
         <f t="shared" si="20"/>
-        <v>0.12596152615479128</v>
-      </c>
-      <c r="U105" s="15">
+        <v>36619453.055214301</v>
+      </c>
+      <c r="O105" s="1">
         <f t="shared" si="20"/>
-        <v>0.12346471908835155</v>
-      </c>
-      <c r="V105" s="15">
+        <v>30874817.370345145</v>
+      </c>
+      <c r="P105" s="1">
         <f t="shared" si="20"/>
-        <v>-0.15194669850456322</v>
-      </c>
-      <c r="W105" s="15">
+        <v>20633958.908062436</v>
+      </c>
+      <c r="Q105" s="1">
         <f t="shared" si="20"/>
-        <v>-6.6842447489456114E-2</v>
-      </c>
-      <c r="X105" s="15">
+        <v>44417175.778523207</v>
+      </c>
+      <c r="R105" s="1">
         <f t="shared" si="20"/>
-        <v>-0.12822512593653312</v>
-      </c>
-      <c r="Y105" s="15">
+        <v>38403120.602407336</v>
+      </c>
+      <c r="S105" s="1">
         <f t="shared" si="20"/>
-        <v>9.5695534208404265E-3</v>
-      </c>
-      <c r="Z105" s="15">
+        <v>155377321.91831684</v>
+      </c>
+      <c r="T105" s="1">
         <f t="shared" si="20"/>
-        <v>-0.35843835118939527</v>
-      </c>
-      <c r="AA105" s="15">
+        <v>183687726.31755388</v>
+      </c>
+      <c r="U105" s="1">
         <f t="shared" si="20"/>
-        <v>0.38277084017344642</v>
-      </c>
-      <c r="AB105" s="15">
+        <v>185920936.97128636</v>
+      </c>
+      <c r="V105" s="1">
         <f t="shared" si="20"/>
-        <v>-0.14633687037400933</v>
-      </c>
-      <c r="AC105" s="15">
+        <v>136232250.71662116</v>
+      </c>
+      <c r="W105" s="1">
         <f t="shared" si="20"/>
-        <v>7.3947613247268951E-2</v>
-      </c>
-      <c r="AD105" s="15">
+        <v>121206660.22078931</v>
+      </c>
+      <c r="X105" s="1">
         <f t="shared" si="20"/>
-        <v>0.4507425897314532</v>
-      </c>
-      <c r="AE105" s="15">
+        <v>138077702.42452404</v>
+      </c>
+      <c r="Y105" s="1">
         <f t="shared" si="20"/>
-        <v>-0.33529093102853902</v>
-      </c>
-      <c r="AF105" s="15">
+        <v>155359086.28309667</v>
+      </c>
+      <c r="Z105" s="1">
         <f t="shared" si="20"/>
-        <v>0.51199318379669934</v>
-      </c>
-      <c r="AG105" s="15">
+        <v>92764964.959294215</v>
+      </c>
+      <c r="AA105" s="1">
         <f t="shared" si="20"/>
-        <v>0.26064852813269468</v>
-      </c>
-      <c r="AH105" s="15">
+        <v>138867304.29930258</v>
+      </c>
+      <c r="AB105" s="1">
         <f t="shared" si="20"/>
-        <v>-6.8328021145100504E-2</v>
-      </c>
-      <c r="AI105" s="15">
+        <v>133422937.56113291</v>
+      </c>
+      <c r="AC105" s="1">
         <f t="shared" si="20"/>
-        <v>0.23267432582541092</v>
-      </c>
-      <c r="AJ105" s="15">
+        <v>123218264.29582292</v>
+      </c>
+      <c r="AD105" s="1">
         <f t="shared" si="20"/>
-        <v>0.45081207772592857</v>
-      </c>
-      <c r="AK105" s="15">
+        <v>174817218.49359974</v>
+      </c>
+      <c r="AE105" s="1">
         <f t="shared" si="20"/>
-        <v>0.21380935301099058</v>
-      </c>
-      <c r="AL105" s="15">
+        <v>90138061.692010969</v>
+      </c>
+      <c r="AF105" s="1">
         <f t="shared" si="20"/>
-        <v>0.2094256308739022</v>
-      </c>
-      <c r="AM105" s="63">
-        <v>647200000</v>
-      </c>
-      <c r="AN105" s="63">
-        <v>715300000</v>
-      </c>
-      <c r="AO105" s="63">
-        <v>828200000</v>
-      </c>
-      <c r="AP105" s="63">
-        <v>863800000</v>
-      </c>
-      <c r="AQ105" s="63">
-        <v>882200000</v>
-      </c>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT105" s="26">
+        <v>157559957.48861149</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="20"/>
+        <v>161174759.44019741</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="20"/>
+        <v>123003857.18711078</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="20"/>
+        <v>153117185.22879893</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="20"/>
+        <v>201643403.49749315</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="20"/>
+        <v>405913725.38186198</v>
+      </c>
+      <c r="AL105" s="1">
+        <f>((AL22*(1-$AT$91))+AL77+AL88+AL81)</f>
+        <v>408421029.93789637</v>
+      </c>
+      <c r="AM105" s="27">
+        <f>AL105*(1+$AT$106)</f>
+        <v>445186202.08730882</v>
+      </c>
+      <c r="AN105" s="27">
+        <f t="shared" ref="AN105:AQ105" si="21">AM105*(1+$AT$106)</f>
+        <v>485260895.01086324</v>
+      </c>
+      <c r="AO105" s="27">
+        <f t="shared" si="21"/>
+        <v>528943024.56517434</v>
+      </c>
+      <c r="AP105" s="27">
+        <f t="shared" si="21"/>
+        <v>576557324.3438282</v>
+      </c>
+      <c r="AQ105" s="27">
+        <f t="shared" si="21"/>
+        <v>628457759.75169313</v>
+      </c>
+      <c r="AR105" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS105" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT105" s="51">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>8.9408670592343475E-2</v>
+        <v>8.8793805304873935E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1">
-        <v>2500000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>2800000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-1700000</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J106" s="1">
-        <v>12400000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>2600000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>6600000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>4400000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>25600000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>24200000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>14057000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>46535000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>79734000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>156262000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>175945000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>197668000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>167633000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>156428000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>136370000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>137675000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>88327000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>122136000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>104263000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>111973000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>162444000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>107978000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>163262000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>205816000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>191753000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>236369000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>342927000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>416248000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>503421000</v>
-      </c>
-      <c r="AM106" s="37">
-        <f>AL106*(1+$AT$106)</f>
-        <v>534585184.94209158</v>
-      </c>
-      <c r="AN106" s="37">
-        <f t="shared" ref="AN106:AQ106" si="21">AM106*(1+$AT$106)</f>
-        <v>567678583.05388582</v>
-      </c>
-      <c r="AO106" s="37">
-        <f t="shared" si="21"/>
-        <v>602820621.92384911</v>
-      </c>
-      <c r="AP106" s="37">
-        <f t="shared" si="21"/>
-        <v>640138122.28347158</v>
-      </c>
-      <c r="AQ106" s="37">
-        <f t="shared" si="21"/>
-        <v>679765755.6784339</v>
-      </c>
-      <c r="AR106" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS106" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT106" s="40">
+      <c r="A106" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AL106" si="22">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="22"/>
+        <v>-1.6071428571428572</v>
+      </c>
+      <c r="I106" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J106" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.79032258064516125</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="22"/>
+        <v>1.5384615384615383</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="22"/>
+        <v>4.8181818181818183</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="22"/>
+        <v>-5.46875E-2</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.4191322314049587</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="22"/>
+        <v>2.3104503094543642</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.7134200064467604</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.95979130609275831</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.12596152615479128</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.12346471908835155</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.15194669850456322</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="22"/>
+        <v>-6.6842447489456114E-2</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.12822512593653312</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="22"/>
+        <v>9.5695534208404265E-3</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.35843835118939527</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.38277084017344642</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.14633687037400933</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="22"/>
+        <v>7.3947613247268951E-2</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.4507425897314532</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.33529093102853902</v>
+      </c>
+      <c r="AF106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.51199318379669934</v>
+      </c>
+      <c r="AG106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.26064852813269468</v>
+      </c>
+      <c r="AH106" s="15">
+        <f t="shared" si="22"/>
+        <v>-6.8328021145100504E-2</v>
+      </c>
+      <c r="AI106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.23267432582541092</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.45081207772592857</v>
+      </c>
+      <c r="AK106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.21380935301099058</v>
+      </c>
+      <c r="AL106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.2094256308739022</v>
+      </c>
+      <c r="AM106" s="35">
+        <v>644800000</v>
+      </c>
+      <c r="AN106" s="35">
+        <v>729000000</v>
+      </c>
+      <c r="AO106" s="35">
+        <v>836900000</v>
+      </c>
+      <c r="AP106" s="35">
+        <v>950100000</v>
+      </c>
+      <c r="AQ106" s="35">
+        <v>1052000000</v>
+      </c>
+      <c r="AR106" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS106" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT106" s="53">
         <f>(SUM(AM4:AQ4)/5)</f>
-        <v>6.1904817125411161E-2</v>
+        <v>9.0017823408855516E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="38"/>
-      <c r="AN107" s="38"/>
-      <c r="AO107" s="38"/>
-      <c r="AP107" s="38"/>
-      <c r="AQ107" s="64">
-        <f>AQ105*(1+AT107)/(AT108-AT107)</f>
-        <v>14039336500.565691</v>
-      </c>
-      <c r="AR107" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS107" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT107" s="44">
+      <c r="A107" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2800000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-1700000</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J107" s="1">
+        <v>12400000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>6600000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>4400000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>25600000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>24200000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>14057000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>46535000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>79734000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>156262000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>175945000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>197668000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>167633000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>156428000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>136370000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>137675000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>88327000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>122136000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>104263000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>111973000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>162444000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>107978000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>163262000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>205816000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>191753000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>236369000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>342927000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>416248000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>503421000</v>
+      </c>
+      <c r="AM107" s="28"/>
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="36">
+        <f>AQ106*(1+AT107)/(AT108-AT107)</f>
+        <v>16902895114.137615</v>
+      </c>
+      <c r="AR107" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS107" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT107" s="55">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="41">
-        <f t="shared" ref="AM108:AO108" si="22">AM107+AM106</f>
-        <v>534585184.94209158</v>
-      </c>
-      <c r="AN108" s="41">
-        <f t="shared" si="22"/>
-        <v>567678583.05388582</v>
-      </c>
-      <c r="AO108" s="41">
-        <f t="shared" si="22"/>
-        <v>602820621.92384911</v>
-      </c>
-      <c r="AP108" s="41">
-        <f>AP107+AP106</f>
-        <v>640138122.28347158</v>
-      </c>
-      <c r="AQ108" s="64">
-        <f>AQ107+AQ105</f>
-        <v>14921536500.565691</v>
-      </c>
-      <c r="AR108" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS108" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT108" s="46">
+      <c r="AM108" s="36">
+        <f t="shared" ref="AM108:AP108" si="23">AM107+AM106</f>
+        <v>644800000</v>
+      </c>
+      <c r="AN108" s="36">
+        <f t="shared" si="23"/>
+        <v>729000000</v>
+      </c>
+      <c r="AO108" s="36">
+        <f t="shared" si="23"/>
+        <v>836900000</v>
+      </c>
+      <c r="AP108" s="36">
+        <f t="shared" si="23"/>
+        <v>950100000</v>
+      </c>
+      <c r="AQ108" s="36">
+        <f>AQ107+AQ106</f>
+        <v>17954895114.137615</v>
+      </c>
+      <c r="AR108" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS108" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT108" s="53">
         <f>AT105</f>
-        <v>8.9408670592343475E-2</v>
+        <v>8.8793805304873935E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="AM109" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN109" s="66"/>
+        <v>148</v>
+      </c>
+      <c r="AN109" s="65"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="47" t="s">
-        <v>152</v>
+      <c r="AM110" s="57" t="s">
+        <v>149</v>
       </c>
       <c r="AN110" s="48">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>11614079546.839544</v>
+        <v>14265844672.841698</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="47" t="s">
-        <v>153</v>
+      <c r="AM111" s="57" t="s">
+        <v>150</v>
       </c>
       <c r="AN111" s="48">
         <f>AL40</f>
@@ -16452,8 +16583,8 @@
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="47" t="s">
-        <v>140</v>
+      <c r="AM112" s="57" t="s">
+        <v>138</v>
       </c>
       <c r="AN112" s="48">
         <f>AT99</f>
@@ -16461,55 +16592,55 @@
       </c>
     </row>
     <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="47" t="s">
-        <v>154</v>
+      <c r="AM113" s="57" t="s">
+        <v>151</v>
       </c>
       <c r="AN113" s="48">
         <f>AN110+AN111-AN112</f>
-        <v>9835051546.8395443</v>
+        <v>12486816672.841698</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN114" s="49">
+      <c r="AM114" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN114" s="57">
         <f>AL34*(1+(5*AR16))</f>
         <v>21198791.334987625</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN115" s="51">
+      <c r="AM115" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN115" s="59">
         <f>AN113/AN114</f>
-        <v>463.94397640054348</v>
+        <v>589.03436877709078</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN116" s="57" cm="1">
+      <c r="AM116" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN116" s="60" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>790.41</v>
+        <v>793.79</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN117" s="53">
+      <c r="AM117" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN117" s="61">
         <f>AN115/AN116-1</f>
-        <v>-0.41303377183924361</v>
+        <v>-0.25794685146311891</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN118" s="54" t="str">
+      <c r="AM118" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN118" s="62" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -16600,8 +16731,9 @@
     <hyperlink ref="AL36" r:id="rId74" tooltip="https://www.sec.gov/Archives/edgar/data/814547/000081454722000016/0000814547-22-000016-index.htm" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="AL74" r:id="rId75" tooltip="https://www.sec.gov/Archives/edgar/data/814547/000081454722000016/0000814547-22-000016-index.htm" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="AM1" r:id="rId76" display="https://finbox.com/NYSE:FICO/explorer/revenue_proj" xr:uid="{919AB535-BB40-CC40-96F3-C266D9238AD5}"/>
+    <hyperlink ref="AR106" r:id="rId77" xr:uid="{EB138A9C-F9C7-624C-9B0D-A9990F8D9DA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId77"/>
+  <drawing r:id="rId78"/>
 </worksheet>
 </file>
--- a/Financial Services/Fair Isaac Corporation.xlsx
+++ b/Financial Services/Fair Isaac Corporation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4918852-5A41-2749-9526-EAC42A47923A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0DFC58-C278-E946-AED3-4917F3F37464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -564,16 +564,19 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -700,6 +703,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -880,7 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -930,18 +940,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,65 +957,123 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1064,13 +1125,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>Fair</a:t>
+              <a:t>Fair Isaac Corporation</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400" baseline="0"/>
-              <a:t> Isaac Corporation</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1107,15 +1163,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6244224422442242E-2"/>
-          <c:y val="0.14156014762114127"/>
-          <c:w val="0.85699009900990086"/>
-          <c:h val="0.68426662403240202"/>
+          <c:x val="0.10374834437086093"/>
+          <c:y val="0.15463198401910822"/>
+          <c:w val="0.82340397350993366"/>
+          <c:h val="0.61805530294374855"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1164,12 +1220,147 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AL$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AQ$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>14800000</c:v>
                 </c:pt>
@@ -1280,13 +1471,28 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1377270000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1481000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1623000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1781000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1943000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2119000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-41A6-0F46-BF74-573CB043BCE4}"/>
+              <c16:uniqueId val="{00000000-2F6F-E344-8D33-821993BA827E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1295,11 +1501,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1337,129 +1543,279 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AL$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AQ$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>3500000</c:v>
+                  <c:v>1600000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4400000</c:v>
+                  <c:v>2100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000000</c:v>
+                  <c:v>2400000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3900000</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3700000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5500000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8000000</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>13200000</c:v>
+                  <c:v>5300000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21400000</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27700000</c:v>
+                  <c:v>12700000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35000000</c:v>
+                  <c:v>16200000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47400000</c:v>
+                  <c:v>20700000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57000000</c:v>
+                  <c:v>24300000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>67100000</c:v>
+                  <c:v>29100000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68531000</c:v>
+                  <c:v>27631000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101927000</c:v>
+                  <c:v>46112000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>86011000</c:v>
+                  <c:v>17884000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>225757000</c:v>
+                  <c:v>107157000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>218702000</c:v>
+                  <c:v>102788000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>248532000</c:v>
+                  <c:v>134548000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>207887000</c:v>
+                  <c:v>103486000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>198788000</c:v>
+                  <c:v>104650000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>155255000</c:v>
+                  <c:v>83952000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>161107000</c:v>
+                  <c:v>65102000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>147346000</c:v>
+                  <c:v>64457000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>154016000</c:v>
+                  <c:v>71562000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>189526000</c:v>
+                  <c:v>92004000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>195479000</c:v>
+                  <c:v>90095000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>194313000</c:v>
+                  <c:v>94879000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>172277000</c:v>
+                  <c:v>86502000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>202835000</c:v>
+                  <c:v>109448000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>213328000</c:v>
+                  <c:v>128256000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>249503000</c:v>
+                  <c:v>142415000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>287436000</c:v>
+                  <c:v>192124000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>329544000</c:v>
+                  <c:v>236411000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>538826000</c:v>
+                  <c:v>392084000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>560741000</c:v>
+                  <c:v>373541000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>495300000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>568300000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>660000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>755000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>857000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-41A6-0F46-BF74-573CB043BCE4}"/>
+              <c16:uniqueId val="{00000001-2F6F-E344-8D33-821993BA827E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1510,12 +1866,147 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$AL$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AQ$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1626,13 +2117,28 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>503421000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>648000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>736000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>897200000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1003000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1135000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-41A6-0F46-BF74-573CB043BCE4}"/>
+              <c16:uniqueId val="{00000002-2F6F-E344-8D33-821993BA827E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1644,13 +2150,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="181537984"/>
-        <c:axId val="190399472"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1846198192"/>
+        <c:axId val="1846199920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181537984"/>
+        <c:axId val="1846198192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,7 +2184,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1690,7 +2196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190399472"/>
+        <c:crossAx val="1846199920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1698,7 +2204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190399472"/>
+        <c:axId val="1846199920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1747,7 +2253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181537984"/>
+        <c:crossAx val="1846198192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1765,10 +2271,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34740303006678619"/>
-          <c:y val="0.91782932000756556"/>
-          <c:w val="0.30255367584002496"/>
-          <c:h val="5.1829339916581223E-2"/>
+          <c:x val="0.34285008082598945"/>
+          <c:y val="0.89101746001574933"/>
+          <c:w val="0.31429983834802105"/>
+          <c:h val="6.6688919276310293E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1875,7 +2381,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2113,7 +2619,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2349,21 +2854,21 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21ED13C1-BD9D-A902-0D1F-1F8C59112336}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680ECC98-2445-D73F-9135-5DF5E1A3C2DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,38 +2896,48 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0480000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2548,39 +3063,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>815.64</v>
-    <v>389.83499999999998</v>
-    <v>1.2435</v>
-    <v>11.39</v>
-    <v>1.4558E-2</v>
-    <v>-11.39</v>
-    <v>-1.4349000000000001E-2</v>
+    <v>931.99</v>
+    <v>400.22500000000002</v>
+    <v>1.1706000000000001</v>
+    <v>4.5599999999999996</v>
+    <v>4.9849999999999998E-3</v>
+    <v>3.18</v>
+    <v>3.4589999999999998E-3</v>
     <v>USD</v>
     <v>Fair Isaac Corporation is an applied analytics company. The Company operates through two segments: Scores and Software. The Scores segment includes its business-to-business (B2B) scoring solutions and services which give its clients access to predictive credit and other scores that can be integrated into their transaction streams and decision-making processes. This segment also includes its business-to-consumer (B2C) scoring solutions, including its myFICO.com subscription offerings. The Software segment includes pre-configured analytic and decision management solutions designed for a specific type of business need or process, such as account origination, customer management, customer engagement, fraud detection, financial crimes compliance and marketing as well as associated professional services. This segment also includes FICO Platform, a modular software offering designed to support advanced analytic and decision use cases, as well as stand-alone analytic and decisioning software.</v>
-    <v>3320</v>
+    <v>3437</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 West Mendenhall, Suites 105, BOZEMAN, MT, 59715 US</v>
-    <v>798.13</v>
+    <v>931.99</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.958333356248</v>
+    <v>45218.958333356248</v>
     <v>0</v>
-    <v>781.68</v>
-    <v>19839290000</v>
+    <v>901.84</v>
+    <v>22850238864</v>
     <v>FAIR ISAAC CORPORATION</v>
     <v>FAIR ISAAC CORPORATION</v>
-    <v>781.68</v>
-    <v>52.9358</v>
-    <v>782.4</v>
-    <v>793.79</v>
-    <v>782.4</v>
-    <v>24993120</v>
+    <v>907.85</v>
+    <v>55.562600000000003</v>
+    <v>914.7</v>
+    <v>919.26</v>
+    <v>922.44</v>
+    <v>24857210</v>
     <v>FICO</v>
     <v>FAIR ISAAC CORPORATION (XNYS:FICO)</v>
-    <v>145460</v>
-    <v>194579</v>
+    <v>294801</v>
+    <v>178032</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2745,9 +3260,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3165,13 +3680,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU118"/>
+  <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP14" sqref="AP14"/>
+      <selection pane="bottomRight" activeCell="AN88" sqref="AN88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4002,13 +4517,13 @@
       <c r="AR6" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AS6" s="19" t="s">
+      <c r="AS6" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AT6" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AU6" s="67" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4132,16 +4647,16 @@
         <v>0.78059999999999996</v>
       </c>
       <c r="AS7" s="20">
-        <f>AL21</f>
-        <v>0.40710000000000002</v>
+        <f>AM21</f>
+        <v>0.52282241728561785</v>
       </c>
       <c r="AT7" s="20">
-        <f>AL30</f>
-        <v>0.2712</v>
+        <f>AM30</f>
+        <v>0.33443619176232275</v>
       </c>
       <c r="AU7" s="20">
-        <f>AL107/AL3</f>
-        <v>0.36552092182360757</v>
+        <f>AM107/AM3</f>
+        <v>0.437542201215395</v>
       </c>
     </row>
     <row r="8" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5333,17 +5848,17 @@
         <f>(AL35+AK35+AJ35+AI35+AH35)/5</f>
         <v>-3.9080036930294715E-2</v>
       </c>
-      <c r="AS16" s="37">
-        <f>AT101/AL3</f>
-        <v>14.404793540845295</v>
-      </c>
-      <c r="AT16" s="37">
-        <f>AT101/AL28</f>
-        <v>53.111412134143237</v>
-      </c>
-      <c r="AU16" s="38">
-        <f>AT101/AL107</f>
-        <v>39.408944005116993</v>
+      <c r="AS16" s="32">
+        <f>AT102/AL3</f>
+        <v>16.590965361911607</v>
+      </c>
+      <c r="AT16" s="32">
+        <f>AT102/AL28</f>
+        <v>61.17197004880321</v>
+      </c>
+      <c r="AU16" s="33">
+        <f>AT102/AL107</f>
+        <v>45.389919896071085</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5705,36 +6220,36 @@
       <c r="AL19" s="10">
         <v>560741000</v>
       </c>
-      <c r="AM19" s="33">
+      <c r="AM19" s="30">
         <v>774300000</v>
       </c>
-      <c r="AN19" s="33">
+      <c r="AN19" s="30">
         <v>882100000</v>
       </c>
-      <c r="AO19" s="33">
+      <c r="AO19" s="30">
         <v>1004000000</v>
       </c>
-      <c r="AP19" s="33">
+      <c r="AP19" s="30">
         <v>1115000000</v>
       </c>
-      <c r="AQ19" s="33">
+      <c r="AQ19" s="30">
         <v>1237000000</v>
       </c>
       <c r="AR19" s="26">
         <f>AL40-AL56-AL61</f>
         <v>-1779028000</v>
       </c>
-      <c r="AS19" s="37">
-        <f>AT101/AM3</f>
-        <v>13.395874409182985</v>
-      </c>
-      <c r="AT19" s="37">
-        <f>AT101/AM28</f>
-        <v>40.055097920452248</v>
-      </c>
-      <c r="AU19" s="38">
-        <f>AT101/AM105</f>
-        <v>44.564027157582856</v>
+      <c r="AS19" s="32">
+        <f>AT102/AM3</f>
+        <v>15.42892563403106</v>
+      </c>
+      <c r="AT19" s="32">
+        <f>AT102/AM28</f>
+        <v>46.13413863113265</v>
+      </c>
+      <c r="AU19" s="33">
+        <f>AT102/AM107</f>
+        <v>35.262714296296295</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6022,28 +6537,31 @@
       <c r="AL21" s="2">
         <v>0.40710000000000002</v>
       </c>
-      <c r="AM21" s="34">
+      <c r="AM21" s="31">
         <f>AM19/AM3</f>
         <v>0.52282241728561785</v>
       </c>
-      <c r="AN21" s="34">
+      <c r="AN21" s="31">
         <f t="shared" ref="AN21:AQ21" si="9">AN19/AN3</f>
         <v>0.54349969192852743</v>
       </c>
-      <c r="AO21" s="34">
+      <c r="AO21" s="31">
         <f t="shared" si="9"/>
         <v>0.56372824256035936</v>
       </c>
-      <c r="AP21" s="34">
+      <c r="AP21" s="31">
         <f t="shared" si="9"/>
         <v>0.57385486361296967</v>
       </c>
-      <c r="AQ21" s="34">
+      <c r="AQ21" s="31">
         <f t="shared" si="9"/>
         <v>0.58376592732420951</v>
       </c>
+      <c r="AS21" s="42" t="s">
+        <v>167</v>
+      </c>
       <c r="AT21" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AU21" s="19" t="s">
         <v>166</v>
@@ -6164,13 +6682,17 @@
       <c r="AL22" s="10">
         <v>542414000</v>
       </c>
-      <c r="AT22" s="63">
-        <f>(-1*AL98)/AT101</f>
+      <c r="AS22" s="17">
+        <f>SUM(AM29:AQ29)/5</f>
+        <v>0.1827482912124157</v>
+      </c>
+      <c r="AT22" s="66">
+        <f>(-1*AL98)/AT102</f>
         <v>0</v>
       </c>
-      <c r="AU22" s="64">
-        <f>AL107/AT101</f>
-        <v>2.5374950414052116E-2</v>
+      <c r="AU22" s="41">
+        <f>AM107/AT102</f>
+        <v>2.8358565696260985E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6868,19 +7390,19 @@
       <c r="AL28" s="11">
         <v>373541000</v>
       </c>
-      <c r="AM28" s="30">
+      <c r="AM28" s="27">
         <v>495300000</v>
       </c>
-      <c r="AN28" s="30">
+      <c r="AN28" s="27">
         <v>568300000</v>
       </c>
-      <c r="AO28" s="30">
+      <c r="AO28" s="27">
         <v>660000000</v>
       </c>
-      <c r="AP28" s="30">
+      <c r="AP28" s="27">
         <v>755000000</v>
       </c>
-      <c r="AQ28" s="30">
+      <c r="AQ28" s="27">
         <v>857000000</v>
       </c>
     </row>
@@ -7169,23 +7691,23 @@
       <c r="AL30" s="2">
         <v>0.2712</v>
       </c>
-      <c r="AM30" s="31">
+      <c r="AM30" s="28">
         <f>AM28/AM3</f>
         <v>0.33443619176232275</v>
       </c>
-      <c r="AN30" s="31">
+      <c r="AN30" s="28">
         <f t="shared" ref="AN30:AQ30" si="16">AN28/AN3</f>
         <v>0.35015403573629084</v>
       </c>
-      <c r="AO30" s="31">
+      <c r="AO30" s="28">
         <f t="shared" si="16"/>
         <v>0.37057832678270636</v>
       </c>
-      <c r="AP30" s="31">
+      <c r="AP30" s="28">
         <f t="shared" si="16"/>
         <v>0.38857436953165209</v>
       </c>
-      <c r="AQ30" s="31">
+      <c r="AQ30" s="28">
         <f t="shared" si="16"/>
         <v>0.4044360547428032</v>
       </c>
@@ -7305,19 +7827,19 @@
       <c r="AL31" s="12">
         <v>14.34</v>
       </c>
-      <c r="AM31" s="32">
+      <c r="AM31" s="29">
         <v>19.82</v>
       </c>
-      <c r="AN31" s="32">
+      <c r="AN31" s="29">
         <v>22.74</v>
       </c>
-      <c r="AO31" s="32">
+      <c r="AO31" s="29">
         <v>26.41</v>
       </c>
-      <c r="AP31" s="32">
+      <c r="AP31" s="29">
         <v>30.21</v>
       </c>
-      <c r="AQ31" s="32">
+      <c r="AQ31" s="29">
         <v>34.29</v>
       </c>
     </row>
@@ -7437,7 +7959,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -7552,8 +8074,12 @@
       <c r="AL33" s="1">
         <v>26042000</v>
       </c>
+      <c r="AM33" s="1" cm="1">
+        <f t="array" ref="AM33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>24857210</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -7668,8 +8194,12 @@
       <c r="AL34" s="1">
         <v>26347000</v>
       </c>
+      <c r="AM34" s="1" cm="1">
+        <f t="array" ref="AM34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>24857210</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -7679,7 +8209,7 @@
         <v>0.12498495255623604</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AL35" si="17">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AM35" si="17">(D34-C34)/C34</f>
         <v>0.1428571470963266</v>
       </c>
       <c r="E35" s="22">
@@ -7818,8 +8348,12 @@
         <f t="shared" si="17"/>
         <v>-9.9555707450444286E-2</v>
       </c>
+      <c r="AM35" s="22">
+        <f t="shared" si="17"/>
+        <v>-5.6544957680191292E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -7935,7 +8469,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -8051,7 +8585,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -8167,7 +8701,7 @@
         <v>133202000</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -8283,7 +8817,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -8399,7 +8933,7 @@
         <v>133202000</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -8515,7 +9049,7 @@
         <v>322410000</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -8631,7 +9165,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -8747,7 +9281,7 @@
         <v>29103000</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -8863,7 +9397,7 @@
         <v>484715000</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -8979,7 +9513,7 @@
         <v>54268000</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -9095,7 +9629,7 @@
         <v>761067000</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -9211,7 +9745,7 @@
         <v>2017000</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -13308,7 +13842,7 @@
         <v>-31557000</v>
       </c>
     </row>
-    <row r="83" spans="1:46" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -13423,12 +13957,8 @@
       <c r="AL83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS83" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT83" s="67"/>
     </row>
-    <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -13543,12 +14073,18 @@
       <c r="AL84" s="1">
         <v>-2802000</v>
       </c>
-      <c r="AS84" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="AT84" s="68"/>
+      <c r="AM84" s="43"/>
+      <c r="AN84" s="43"/>
+      <c r="AO84" s="43"/>
+      <c r="AP84" s="43"/>
+      <c r="AQ84" s="43"/>
+      <c r="AR84" s="43"/>
+      <c r="AS84" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT84" s="72"/>
     </row>
-    <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -13663,13 +14199,16 @@
       <c r="AL85" s="1">
         <v>19910000</v>
       </c>
-      <c r="AS85" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT85" s="41">
-        <f>AL17</f>
-        <v>68967000</v>
-      </c>
+      <c r="AM85" s="43"/>
+      <c r="AN85" s="43"/>
+      <c r="AO85" s="43"/>
+      <c r="AP85" s="43"/>
+      <c r="AQ85" s="43"/>
+      <c r="AR85" s="43"/>
+      <c r="AS85" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT85" s="73"/>
     </row>
     <row r="86" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -13786,12 +14325,18 @@
       <c r="AL86" s="1">
         <v>28184000</v>
       </c>
-      <c r="AS86" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT86" s="41">
-        <f>AL56</f>
-        <v>49369000</v>
+      <c r="AM86" s="43"/>
+      <c r="AN86" s="43"/>
+      <c r="AO86" s="43"/>
+      <c r="AP86" s="43"/>
+      <c r="AQ86" s="43"/>
+      <c r="AR86" s="43"/>
+      <c r="AS86" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT86" s="44">
+        <f>AL17</f>
+        <v>68967000</v>
       </c>
     </row>
     <row r="87" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -13909,12 +14454,18 @@
       <c r="AL87" s="10">
         <v>509450000</v>
       </c>
-      <c r="AS87" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT87" s="41">
-        <f>AL61</f>
-        <v>1862861000</v>
+      <c r="AM87" s="43"/>
+      <c r="AN87" s="43"/>
+      <c r="AO87" s="43"/>
+      <c r="AP87" s="43"/>
+      <c r="AQ87" s="43"/>
+      <c r="AR87" s="43"/>
+      <c r="AS87" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT87" s="44">
+        <f>AL56</f>
+        <v>49369000</v>
       </c>
     </row>
     <row r="88" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14032,12 +14583,18 @@
       <c r="AL88" s="1">
         <v>-6029000</v>
       </c>
-      <c r="AS88" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT88" s="43">
-        <f>AT85/(AT86+AT87)</f>
-        <v>3.6066268179037041E-2</v>
+      <c r="AM88" s="43"/>
+      <c r="AN88" s="43"/>
+      <c r="AO88" s="43"/>
+      <c r="AP88" s="43"/>
+      <c r="AQ88" s="43"/>
+      <c r="AR88" s="43"/>
+      <c r="AS88" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT88" s="44">
+        <f>AL61</f>
+        <v>1862861000</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -14192,12 +14749,18 @@
         <f t="shared" si="19"/>
         <v>4.3775004174925755E-3</v>
       </c>
-      <c r="AS89" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT89" s="41">
-        <f>AL27</f>
-        <v>97768000</v>
+      <c r="AM89" s="43"/>
+      <c r="AN89" s="43"/>
+      <c r="AO89" s="43"/>
+      <c r="AP89" s="43"/>
+      <c r="AQ89" s="43"/>
+      <c r="AR89" s="43"/>
+      <c r="AS89" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT89" s="45">
+        <f>AT86/(AT87+AT88)</f>
+        <v>3.6066268179037041E-2</v>
       </c>
     </row>
     <row r="90" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14315,12 +14878,18 @@
       <c r="AL90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS90" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT90" s="41">
-        <f>AL25</f>
-        <v>471309000</v>
+      <c r="AM90" s="43"/>
+      <c r="AN90" s="43"/>
+      <c r="AO90" s="43"/>
+      <c r="AP90" s="43"/>
+      <c r="AQ90" s="43"/>
+      <c r="AR90" s="43"/>
+      <c r="AS90" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT90" s="44">
+        <f>AL27</f>
+        <v>97768000</v>
       </c>
     </row>
     <row r="91" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14438,12 +15007,18 @@
       <c r="AL91" s="1">
         <v>-9963000</v>
       </c>
-      <c r="AS91" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT91" s="43">
-        <f>AT89/AT90</f>
-        <v>0.20743928081152704</v>
+      <c r="AM91" s="43"/>
+      <c r="AN91" s="43"/>
+      <c r="AO91" s="43"/>
+      <c r="AP91" s="43"/>
+      <c r="AQ91" s="43"/>
+      <c r="AR91" s="43"/>
+      <c r="AS91" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT91" s="44">
+        <f>AL25</f>
+        <v>471309000</v>
       </c>
     </row>
     <row r="92" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14561,15 +15136,21 @@
       <c r="AL92" s="1">
         <v>8063000</v>
       </c>
-      <c r="AS92" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT92" s="43">
-        <f>AT88*(1-AT91)</f>
-        <v>2.8584707446421932E-2</v>
+      <c r="AM92" s="43"/>
+      <c r="AN92" s="43"/>
+      <c r="AO92" s="43"/>
+      <c r="AP92" s="43"/>
+      <c r="AQ92" s="43"/>
+      <c r="AR92" s="43"/>
+      <c r="AS92" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT92" s="45">
+        <f>AT90/AT91</f>
+        <v>0.20743928081152704</v>
       </c>
     </row>
-    <row r="93" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -14684,12 +15265,21 @@
       <c r="AL93" s="1">
         <v>2258000</v>
       </c>
-      <c r="AS93" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT93" s="68"/>
+      <c r="AM93" s="43"/>
+      <c r="AN93" s="43"/>
+      <c r="AO93" s="43"/>
+      <c r="AP93" s="43"/>
+      <c r="AQ93" s="43"/>
+      <c r="AR93" s="43"/>
+      <c r="AS93" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT93" s="45">
+        <f>AT89*(1-AT92)</f>
+        <v>2.8584707446421932E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -14804,13 +15394,16 @@
       <c r="AL94" s="10">
         <v>-5671000</v>
       </c>
-      <c r="AS94" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT94" s="44">
-        <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
-      </c>
+      <c r="AM94" s="43"/>
+      <c r="AN94" s="43"/>
+      <c r="AO94" s="43"/>
+      <c r="AP94" s="43"/>
+      <c r="AQ94" s="43"/>
+      <c r="AR94" s="43"/>
+      <c r="AS94" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT94" s="73"/>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -14927,12 +15520,18 @@
       <c r="AL95" s="1">
         <v>-988250000</v>
       </c>
-      <c r="AS95" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT95" s="46" cm="1">
-        <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.2435</v>
+      <c r="AM95" s="43"/>
+      <c r="AN95" s="43"/>
+      <c r="AO95" s="43"/>
+      <c r="AP95" s="43"/>
+      <c r="AQ95" s="43"/>
+      <c r="AR95" s="43"/>
+      <c r="AS95" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT95" s="68">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15050,11 +15649,18 @@
       <c r="AL96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS96" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT96" s="47">
-        <v>8.4000000000000005E-2</v>
+      <c r="AM96" s="43"/>
+      <c r="AN96" s="43"/>
+      <c r="AO96" s="43"/>
+      <c r="AP96" s="43"/>
+      <c r="AQ96" s="43"/>
+      <c r="AR96" s="43"/>
+      <c r="AS96" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT96" s="46" cm="1">
+        <f t="array" ref="AT96">_FV(A1,"Beta")</f>
+        <v>1.1706000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15172,15 +15778,20 @@
       <c r="AL97" s="1">
         <v>-1104180000</v>
       </c>
-      <c r="AS97" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT97" s="43">
-        <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.4597120000000007E-2</v>
+      <c r="AM97" s="43"/>
+      <c r="AN97" s="43"/>
+      <c r="AO97" s="43"/>
+      <c r="AP97" s="43"/>
+      <c r="AQ97" s="43"/>
+      <c r="AR97" s="43"/>
+      <c r="AS97" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT97" s="47">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -15295,12 +15906,21 @@
       <c r="AL98" s="1">
         <v>0</v>
       </c>
-      <c r="AS98" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT98" s="68"/>
+      <c r="AM98" s="43"/>
+      <c r="AN98" s="43"/>
+      <c r="AO98" s="43"/>
+      <c r="AP98" s="43"/>
+      <c r="AQ98" s="43"/>
+      <c r="AR98" s="43"/>
+      <c r="AS98" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT98" s="45">
+        <f>(AT95)+((AT96)*(AT97-AT95))</f>
+        <v>8.9967588000000015E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -15415,13 +16035,16 @@
       <c r="AL99" s="1">
         <v>1545265000</v>
       </c>
-      <c r="AS99" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT99" s="41">
-        <f>AT86+AT87</f>
-        <v>1912230000</v>
-      </c>
+      <c r="AM99" s="43"/>
+      <c r="AN99" s="43"/>
+      <c r="AO99" s="43"/>
+      <c r="AP99" s="43"/>
+      <c r="AQ99" s="43"/>
+      <c r="AR99" s="43"/>
+      <c r="AS99" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT99" s="73"/>
     </row>
     <row r="100" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -15538,12 +16161,18 @@
       <c r="AL100" s="10">
         <v>-547165000</v>
       </c>
-      <c r="AS100" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT100" s="43">
-        <f>AT99/AT103</f>
-        <v>8.7912476921153102E-2</v>
+      <c r="AM100" s="43"/>
+      <c r="AN100" s="43"/>
+      <c r="AO100" s="43"/>
+      <c r="AP100" s="43"/>
+      <c r="AQ100" s="43"/>
+      <c r="AR100" s="43"/>
+      <c r="AS100" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT100" s="44">
+        <f>AT87+AT88</f>
+        <v>1912230000</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15661,12 +16290,18 @@
       <c r="AL101" s="1">
         <v>-18766000</v>
       </c>
-      <c r="AS101" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT101" s="48" cm="1">
-        <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>19839290000</v>
+      <c r="AM101" s="43"/>
+      <c r="AN101" s="43"/>
+      <c r="AO101" s="43"/>
+      <c r="AP101" s="43"/>
+      <c r="AQ101" s="43"/>
+      <c r="AR101" s="43"/>
+      <c r="AS101" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT101" s="45">
+        <f>AT100/AT104</f>
+        <v>7.722291385815834E-2</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15784,12 +16419,18 @@
       <c r="AL102" s="10">
         <v>-62152000</v>
       </c>
-      <c r="AS102" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT102" s="43">
-        <f>AT101/AT103</f>
-        <v>0.91208752307884688</v>
+      <c r="AM102" s="43"/>
+      <c r="AN102" s="43"/>
+      <c r="AO102" s="43"/>
+      <c r="AP102" s="43"/>
+      <c r="AQ102" s="43"/>
+      <c r="AR102" s="43"/>
+      <c r="AS102" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT102" s="48" cm="1">
+        <f t="array" ref="AT102">_FV(A1,"Market cap",TRUE)</f>
+        <v>22850238864</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15907,15 +16548,21 @@
       <c r="AL103" s="1">
         <v>195354000</v>
       </c>
-      <c r="AS103" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT103" s="49">
-        <f>AT99+AT101</f>
-        <v>21751520000</v>
+      <c r="AM103" s="43"/>
+      <c r="AN103" s="43"/>
+      <c r="AO103" s="43"/>
+      <c r="AP103" s="43"/>
+      <c r="AQ103" s="43"/>
+      <c r="AR103" s="43"/>
+      <c r="AS103" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT103" s="45">
+        <f>AT102/AT104</f>
+        <v>0.92277708614184162</v>
       </c>
     </row>
-    <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -16030,17 +16677,28 @@
       <c r="AL104" s="11">
         <v>133202000</v>
       </c>
-      <c r="AS104" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT104" s="68"/>
+      <c r="AM104" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN104" s="75"/>
+      <c r="AO104" s="75"/>
+      <c r="AP104" s="75"/>
+      <c r="AQ104" s="75"/>
+      <c r="AR104" s="43"/>
+      <c r="AS104" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT104" s="49">
+        <f>AT100+AT102</f>
+        <v>24762468864</v>
+      </c>
     </row>
-    <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B105" s="1" t="e">
-        <f t="shared" ref="B105:AK105" si="20">((B22*(1-$AT$91))+B77+B88+B81)</f>
+        <f t="shared" ref="B105:AL105" si="20">((B22*(1-$AT$92))+B77+B88+B81)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C105" s="1" t="e">
@@ -16184,475 +16842,566 @@
         <v>405913725.38186198</v>
       </c>
       <c r="AL105" s="1">
-        <f>((AL22*(1-$AT$91))+AL77+AL88+AL81)</f>
+        <f t="shared" si="20"/>
         <v>408421029.93789637</v>
       </c>
-      <c r="AM105" s="27">
-        <f>AL105*(1+$AT$106)</f>
-        <v>445186202.08730882</v>
-      </c>
-      <c r="AN105" s="27">
-        <f t="shared" ref="AN105:AQ105" si="21">AM105*(1+$AT$106)</f>
-        <v>485260895.01086324</v>
-      </c>
-      <c r="AO105" s="27">
-        <f t="shared" si="21"/>
-        <v>528943024.56517434</v>
-      </c>
-      <c r="AP105" s="27">
-        <f t="shared" si="21"/>
-        <v>576557324.3438282</v>
-      </c>
-      <c r="AQ105" s="27">
-        <f t="shared" si="21"/>
-        <v>628457759.75169313</v>
-      </c>
-      <c r="AR105" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS105" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT105" s="51">
-        <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>8.8793805304873935E-2</v>
-      </c>
+      <c r="AM105" s="69">
+        <f>AM107/AM3</f>
+        <v>0.437542201215395</v>
+      </c>
+      <c r="AN105" s="69">
+        <f>AN107/AN3</f>
+        <v>0.45348120764017252</v>
+      </c>
+      <c r="AO105" s="69">
+        <f>AO107/AO3</f>
+        <v>0.50376193149915782</v>
+      </c>
+      <c r="AP105" s="69">
+        <f>AP107/AP3</f>
+        <v>0.51621204323211534</v>
+      </c>
+      <c r="AQ105" s="69">
+        <f>AQ107/AQ3</f>
+        <v>0.53563001415762157</v>
+      </c>
+      <c r="AR105" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS105" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT105" s="73"/>
     </row>
-    <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:AL106" si="22">(C107/B107)-1</f>
+        <f t="shared" ref="C106:AL106" si="21">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-1.6071428571428572</v>
       </c>
       <c r="I106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="J106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.79032258064516125</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.5384615384615383</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.33333333333333337</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>4.8181818181818183</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-5.46875E-2</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.4191322314049587</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.3104503094543642</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.7134200064467604</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.95979130609275831</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.12596152615479128</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.12346471908835155</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.15194669850456322</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-6.6842447489456114E-2</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.12822512593653312</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>9.5695534208404265E-3</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.35843835118939527</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.38277084017344642</v>
       </c>
       <c r="AB106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.14633687037400933</v>
       </c>
       <c r="AC106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>7.3947613247268951E-2</v>
       </c>
       <c r="AD106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.4507425897314532</v>
       </c>
       <c r="AE106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.33529093102853902</v>
       </c>
       <c r="AF106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.51199318379669934</v>
       </c>
       <c r="AG106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.26064852813269468</v>
       </c>
       <c r="AH106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-6.8328021145100504E-2</v>
       </c>
       <c r="AI106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.23267432582541092</v>
       </c>
       <c r="AJ106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.45081207772592857</v>
       </c>
       <c r="AK106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.21380935301099058</v>
       </c>
       <c r="AL106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.2094256308739022</v>
       </c>
-      <c r="AM106" s="35">
-        <v>644800000</v>
-      </c>
-      <c r="AN106" s="35">
-        <v>729000000</v>
-      </c>
-      <c r="AO106" s="35">
-        <v>836900000</v>
-      </c>
-      <c r="AP106" s="35">
-        <v>950100000</v>
-      </c>
-      <c r="AQ106" s="35">
-        <v>1052000000</v>
-      </c>
-      <c r="AR106" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS106" s="52" t="s">
+      <c r="AM106" s="51">
+        <f>(AM107/AL107)-1</f>
+        <v>0.2871930253207553</v>
+      </c>
+      <c r="AN106" s="51">
+        <f>(AN107/AM107)-1</f>
+        <v>0.13580246913580241</v>
+      </c>
+      <c r="AO106" s="51">
+        <f>(AO107/AN107)-1</f>
+        <v>0.21902173913043477</v>
+      </c>
+      <c r="AP106" s="51">
+        <f>(AP107/AO107)-1</f>
+        <v>0.11792242532322783</v>
+      </c>
+      <c r="AQ106" s="51">
+        <f>(AQ107/AP107)-1</f>
+        <v>0.13160518444665992</v>
+      </c>
+      <c r="AR106" s="52">
+        <f>SUM(AM106:AQ106)/5</f>
+        <v>0.17830896867137605</v>
+      </c>
+      <c r="AS106" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT106" s="53">
+        <f>(AT101*AT93)+(AT103*AT98)</f>
+        <v>8.522742310264543E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2800000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-1700000</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J107" s="1">
+        <v>12400000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>6600000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>4400000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>25600000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>24200000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>14057000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>46535000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>79734000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>156262000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>175945000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>197668000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>167633000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>156428000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>136370000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>137675000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>88327000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>122136000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>104263000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>111973000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>162444000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>107978000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>163262000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>205816000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>191753000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>236369000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>342927000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>416248000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>503421000</v>
+      </c>
+      <c r="AM107" s="54">
+        <v>648000000</v>
+      </c>
+      <c r="AN107" s="54">
+        <v>736000000</v>
+      </c>
+      <c r="AO107" s="54">
+        <v>897200000</v>
+      </c>
+      <c r="AP107" s="54">
+        <v>1003000000</v>
+      </c>
+      <c r="AQ107" s="54">
+        <v>1135000000</v>
+      </c>
+      <c r="AR107" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS107" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="AT106" s="53">
+      <c r="AT107" s="39">
         <f>(SUM(AM4:AQ4)/5)</f>
         <v>9.0017823408855516E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F107" s="1">
-        <v>2500000</v>
-      </c>
-      <c r="G107" s="1">
-        <v>2800000</v>
-      </c>
-      <c r="H107" s="1">
-        <v>-1700000</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J107" s="1">
-        <v>12400000</v>
-      </c>
-      <c r="K107" s="1">
-        <v>2600000</v>
-      </c>
-      <c r="L107" s="1">
-        <v>6600000</v>
-      </c>
-      <c r="M107" s="1">
-        <v>4400000</v>
-      </c>
-      <c r="N107" s="1">
-        <v>25600000</v>
-      </c>
-      <c r="O107" s="1">
-        <v>24200000</v>
-      </c>
-      <c r="P107" s="1">
-        <v>14057000</v>
-      </c>
-      <c r="Q107" s="1">
-        <v>46535000</v>
-      </c>
-      <c r="R107" s="1">
-        <v>79734000</v>
-      </c>
-      <c r="S107" s="1">
-        <v>156262000</v>
-      </c>
-      <c r="T107" s="1">
-        <v>175945000</v>
-      </c>
-      <c r="U107" s="1">
-        <v>197668000</v>
-      </c>
-      <c r="V107" s="1">
-        <v>167633000</v>
-      </c>
-      <c r="W107" s="1">
-        <v>156428000</v>
-      </c>
-      <c r="X107" s="1">
-        <v>136370000</v>
-      </c>
-      <c r="Y107" s="1">
-        <v>137675000</v>
-      </c>
-      <c r="Z107" s="1">
-        <v>88327000</v>
-      </c>
-      <c r="AA107" s="1">
-        <v>122136000</v>
-      </c>
-      <c r="AB107" s="1">
-        <v>104263000</v>
-      </c>
-      <c r="AC107" s="1">
-        <v>111973000</v>
-      </c>
-      <c r="AD107" s="1">
-        <v>162444000</v>
-      </c>
-      <c r="AE107" s="1">
-        <v>107978000</v>
-      </c>
-      <c r="AF107" s="1">
-        <v>163262000</v>
-      </c>
-      <c r="AG107" s="1">
-        <v>205816000</v>
-      </c>
-      <c r="AH107" s="1">
-        <v>191753000</v>
-      </c>
-      <c r="AI107" s="1">
-        <v>236369000</v>
-      </c>
-      <c r="AJ107" s="1">
-        <v>342927000</v>
-      </c>
-      <c r="AK107" s="1">
-        <v>416248000</v>
-      </c>
-      <c r="AL107" s="1">
-        <v>503421000</v>
-      </c>
-      <c r="AM107" s="28"/>
-      <c r="AN107" s="28"/>
-      <c r="AO107" s="28"/>
-      <c r="AP107" s="28"/>
-      <c r="AQ107" s="36">
-        <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>16902895114.137615</v>
-      </c>
-      <c r="AR107" s="29" t="s">
+    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.2">
+      <c r="AM108" s="70"/>
+      <c r="AN108" s="70"/>
+      <c r="AO108" s="70"/>
+      <c r="AP108" s="70"/>
+      <c r="AQ108" s="56">
+        <f>AQ107*(1+AT108)/(AT109-AT108)</f>
+        <v>19316366865.261082</v>
+      </c>
+      <c r="AR108" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="AS107" s="54" t="s">
+      <c r="AS108" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="AT107" s="55">
+      <c r="AT108" s="40">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="36">
-        <f t="shared" ref="AM108:AP108" si="23">AM107+AM106</f>
-        <v>644800000</v>
-      </c>
-      <c r="AN108" s="36">
-        <f t="shared" si="23"/>
-        <v>729000000</v>
-      </c>
-      <c r="AO108" s="36">
-        <f t="shared" si="23"/>
-        <v>836900000</v>
-      </c>
-      <c r="AP108" s="36">
-        <f t="shared" si="23"/>
-        <v>950100000</v>
-      </c>
-      <c r="AQ108" s="36">
-        <f>AQ107+AQ106</f>
-        <v>17954895114.137615</v>
-      </c>
-      <c r="AR108" s="29" t="s">
+    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.2">
+      <c r="AM109" s="56">
+        <f t="shared" ref="AM109:AP109" si="22">AM108+AM107</f>
+        <v>648000000</v>
+      </c>
+      <c r="AN109" s="56">
+        <f t="shared" si="22"/>
+        <v>736000000</v>
+      </c>
+      <c r="AO109" s="56">
+        <f t="shared" si="22"/>
+        <v>897200000</v>
+      </c>
+      <c r="AP109" s="56">
+        <f t="shared" si="22"/>
+        <v>1003000000</v>
+      </c>
+      <c r="AQ109" s="56">
+        <f>AQ108+AQ107</f>
+        <v>20451366865.261082</v>
+      </c>
+      <c r="AR109" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="AS108" s="56" t="s">
+      <c r="AS109" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="AT108" s="53">
-        <f>AT105</f>
-        <v>8.8793805304873935E-2</v>
+      <c r="AT109" s="39">
+        <f>AT106</f>
+        <v>8.522742310264543E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="65" t="s">
+    <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.2">
+      <c r="AM110" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="AN109" s="65"/>
+      <c r="AN110" s="74"/>
+      <c r="AO110" s="43"/>
+      <c r="AP110" s="43"/>
+      <c r="AQ110" s="43"/>
+      <c r="AR110" s="43"/>
+      <c r="AS110" s="43"/>
+      <c r="AT110" s="43"/>
     </row>
-    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="57" t="s">
+    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM111" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="AN110" s="48">
-        <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>14265844672.841698</v>
-      </c>
+      <c r="AN111" s="48">
+        <f>NPV(AT109,AM109,AN109,AO109,AP109,AQ109)</f>
+        <v>16234005609.69558</v>
+      </c>
+      <c r="AO111" s="43"/>
+      <c r="AP111" s="43"/>
+      <c r="AQ111" s="43"/>
+      <c r="AR111" s="43"/>
+      <c r="AS111" s="43"/>
+      <c r="AT111" s="43"/>
     </row>
-    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="57" t="s">
+    <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM112" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="AN111" s="48">
+      <c r="AN112" s="48">
         <f>AL40</f>
         <v>133202000</v>
       </c>
+      <c r="AO112" s="43"/>
+      <c r="AP112" s="43"/>
+      <c r="AQ112" s="43"/>
+      <c r="AR112" s="43"/>
+      <c r="AS112" s="43"/>
+      <c r="AT112" s="43"/>
     </row>
-    <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="57" t="s">
+    <row r="113" spans="39:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM113" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="AN112" s="48">
-        <f>AT99</f>
+      <c r="AN113" s="48">
+        <f>AT100</f>
         <v>1912230000</v>
       </c>
+      <c r="AO113" s="43"/>
+      <c r="AP113" s="43"/>
+      <c r="AQ113" s="43"/>
+      <c r="AR113" s="43"/>
+      <c r="AS113" s="43"/>
+      <c r="AT113" s="43"/>
     </row>
-    <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="57" t="s">
+    <row r="114" spans="39:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM114" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AN113" s="48">
-        <f>AN110+AN111-AN112</f>
-        <v>12486816672.841698</v>
-      </c>
+      <c r="AN114" s="48">
+        <f>AN111+AN112-AN113</f>
+        <v>14454977609.69558</v>
+      </c>
+      <c r="AO114" s="43"/>
+      <c r="AP114" s="43"/>
+      <c r="AQ114" s="43"/>
+      <c r="AR114" s="43"/>
+      <c r="AS114" s="43"/>
+      <c r="AT114" s="43"/>
     </row>
-    <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="57" t="s">
+    <row r="115" spans="39:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM115" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="AN114" s="57">
+      <c r="AN115" s="60">
         <f>AL34*(1+(5*AR16))</f>
         <v>21198791.334987625</v>
       </c>
+      <c r="AO115" s="43"/>
+      <c r="AP115" s="43"/>
+      <c r="AQ115" s="43"/>
+      <c r="AR115" s="43"/>
+      <c r="AS115" s="43"/>
+      <c r="AT115" s="43"/>
     </row>
-    <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="58" t="s">
+    <row r="116" spans="39:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM116" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="AN115" s="59">
-        <f>AN113/AN114</f>
-        <v>589.03436877709078</v>
-      </c>
+      <c r="AN116" s="62">
+        <f>AN114/AN115</f>
+        <v>681.87744203313639</v>
+      </c>
+      <c r="AO116" s="43"/>
+      <c r="AP116" s="43"/>
+      <c r="AQ116" s="43"/>
+      <c r="AR116" s="43"/>
+      <c r="AS116" s="43"/>
+      <c r="AT116" s="43"/>
     </row>
-    <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="57" t="s">
+    <row r="117" spans="39:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM117" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="AN116" s="60" cm="1">
-        <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>793.79</v>
-      </c>
+      <c r="AN117" s="63" cm="1">
+        <f t="array" ref="AN117">_FV(A1,"Price")</f>
+        <v>919.26</v>
+      </c>
+      <c r="AO117" s="43"/>
+      <c r="AP117" s="43"/>
+      <c r="AQ117" s="43"/>
+      <c r="AR117" s="43"/>
+      <c r="AS117" s="43"/>
+      <c r="AT117" s="43"/>
     </row>
-    <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="58" t="s">
+    <row r="118" spans="39:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM118" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="AN117" s="61">
-        <f>AN115/AN116-1</f>
-        <v>-0.25794685146311891</v>
-      </c>
+      <c r="AN118" s="64">
+        <f>AN116/AN117-1</f>
+        <v>-0.25823222806046564</v>
+      </c>
+      <c r="AO118" s="43"/>
+      <c r="AP118" s="43"/>
+      <c r="AQ118" s="43"/>
+      <c r="AR118" s="43"/>
+      <c r="AS118" s="43"/>
+      <c r="AT118" s="43"/>
     </row>
-    <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="58" t="s">
+    <row r="119" spans="39:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM119" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="AN118" s="62" t="str">
-        <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
+      <c r="AN119" s="65" t="str">
+        <f>IF(AN116&gt;AN117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="AO119" s="43"/>
+      <c r="AP119" s="43"/>
+      <c r="AQ119" s="43"/>
+      <c r="AR119" s="43"/>
+      <c r="AS119" s="43"/>
+      <c r="AT119" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AM109:AN109"/>
-    <mergeCell ref="AS83:AT83"/>
+  <mergeCells count="7">
     <mergeCell ref="AS84:AT84"/>
-    <mergeCell ref="AS93:AT93"/>
-    <mergeCell ref="AS98:AT98"/>
-    <mergeCell ref="AS104:AT104"/>
+    <mergeCell ref="AS85:AT85"/>
+    <mergeCell ref="AM110:AN110"/>
+    <mergeCell ref="AM104:AQ104"/>
+    <mergeCell ref="AS105:AT105"/>
+    <mergeCell ref="AS99:AT99"/>
+    <mergeCell ref="AS94:AT94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/FICO" display="ROIC.AI | FICO" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -16731,7 +17480,7 @@
     <hyperlink ref="AL36" r:id="rId74" tooltip="https://www.sec.gov/Archives/edgar/data/814547/000081454722000016/0000814547-22-000016-index.htm" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="AL74" r:id="rId75" tooltip="https://www.sec.gov/Archives/edgar/data/814547/000081454722000016/0000814547-22-000016-index.htm" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="AM1" r:id="rId76" display="https://finbox.com/NYSE:FICO/explorer/revenue_proj" xr:uid="{919AB535-BB40-CC40-96F3-C266D9238AD5}"/>
-    <hyperlink ref="AR106" r:id="rId77" xr:uid="{EB138A9C-F9C7-624C-9B0D-A9990F8D9DA2}"/>
+    <hyperlink ref="AR107" r:id="rId77" xr:uid="{EB138A9C-F9C7-624C-9B0D-A9990F8D9DA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId78"/>

--- a/Financial Services/Fair Isaac Corporation.xlsx
+++ b/Financial Services/Fair Isaac Corporation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0DFC58-C278-E946-AED3-4917F3F37464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBDCA10-6C3C-CC4A-8D59-BA1655ECE4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2924,7 +2924,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3065,11 +3065,11 @@
     <v>Powered by Refinitiv</v>
     <v>931.99</v>
     <v>400.22500000000002</v>
-    <v>1.1706000000000001</v>
-    <v>4.5599999999999996</v>
-    <v>4.9849999999999998E-3</v>
-    <v>3.18</v>
-    <v>3.4589999999999998E-3</v>
+    <v>1.1682999999999999</v>
+    <v>-7.26</v>
+    <v>-7.8979999999999988E-3</v>
+    <v>-0.78500000000000003</v>
+    <v>-8.6069999999999994E-4</v>
     <v>USD</v>
     <v>Fair Isaac Corporation is an applied analytics company. The Company operates through two segments: Scores and Software. The Scores segment includes its business-to-business (B2B) scoring solutions and services which give its clients access to predictive credit and other scores that can be integrated into their transaction streams and decision-making processes. This segment also includes its business-to-consumer (B2C) scoring solutions, including its myFICO.com subscription offerings. The Software segment includes pre-configured analytic and decision management solutions designed for a specific type of business need or process, such as account origination, customer management, customer engagement, fraud detection, financial crimes compliance and marketing as well as associated professional services. This segment also includes FICO Platform, a modular software offering designed to support advanced analytic and decision use cases, as well as stand-alone analytic and decisioning software.</v>
     <v>3437</v>
@@ -3077,25 +3077,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 West Mendenhall, Suites 105, BOZEMAN, MT, 59715 US</v>
-    <v>931.99</v>
+    <v>927.85</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.958333356248</v>
+    <v>45219.958333367969</v>
     <v>0</v>
-    <v>901.84</v>
-    <v>22850238864</v>
+    <v>899</v>
+    <v>22669775520</v>
     <v>FAIR ISAAC CORPORATION</v>
     <v>FAIR ISAAC CORPORATION</v>
-    <v>907.85</v>
-    <v>55.562600000000003</v>
-    <v>914.7</v>
+    <v>924.79</v>
+    <v>55.839599999999997</v>
     <v>919.26</v>
-    <v>922.44</v>
+    <v>912</v>
+    <v>911.21500000000003</v>
     <v>24857210</v>
     <v>FICO</v>
     <v>FAIR ISAAC CORPORATION (XNYS:FICO)</v>
-    <v>294801</v>
-    <v>178032</v>
+    <v>223402</v>
+    <v>180854</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3683,10 +3683,10 @@
   <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN88" sqref="AN88"/>
+      <selection pane="bottomRight" activeCell="AN98" sqref="AN98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5850,15 +5850,15 @@
       </c>
       <c r="AS16" s="32">
         <f>AT102/AL3</f>
-        <v>16.590965361911607</v>
+        <v>16.459935611753686</v>
       </c>
       <c r="AT16" s="32">
         <f>AT102/AL28</f>
-        <v>61.17197004880321</v>
+        <v>60.688854824503871</v>
       </c>
       <c r="AU16" s="33">
         <f>AT102/AL107</f>
-        <v>45.389919896071085</v>
+        <v>45.031445887239506</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6241,15 +6241,15 @@
       </c>
       <c r="AS19" s="32">
         <f>AT102/AM3</f>
-        <v>15.42892563403106</v>
+        <v>15.307073274814314</v>
       </c>
       <c r="AT19" s="32">
         <f>AT102/AM28</f>
-        <v>46.13413863113265</v>
+        <v>45.76978703815869</v>
       </c>
       <c r="AU19" s="33">
         <f>AT102/AM107</f>
-        <v>35.262714296296295</v>
+        <v>34.984221481481484</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6692,7 +6692,7 @@
       </c>
       <c r="AU22" s="41">
         <f>AM107/AT102</f>
-        <v>2.8358565696260985E-2</v>
+        <v>2.858431480401355E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15531,7 +15531,7 @@
       </c>
       <c r="AT95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15660,7 +15660,7 @@
       </c>
       <c r="AT96" s="46" cm="1">
         <f t="array" ref="AT96">_FV(A1,"Beta")</f>
-        <v>1.1706000000000001</v>
+        <v>1.1682999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15917,7 +15917,7 @@
       </c>
       <c r="AT98" s="45">
         <f>(AT95)+((AT96)*(AT97-AT95))</f>
-        <v>8.9967588000000015E-2</v>
+        <v>8.9742396000000002E-2</v>
       </c>
     </row>
     <row r="99" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="AT101" s="45">
         <f>AT100/AT104</f>
-        <v>7.722291385815834E-2</v>
+        <v>7.7789828760887858E-2</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="AT102" s="48" cm="1">
         <f t="array" ref="AT102">_FV(A1,"Market cap",TRUE)</f>
-        <v>22850238864</v>
+        <v>22669775520</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16559,7 +16559,7 @@
       </c>
       <c r="AT103" s="45">
         <f>AT102/AT104</f>
-        <v>0.92277708614184162</v>
+        <v>0.9222101712391122</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16690,7 +16690,7 @@
       </c>
       <c r="AT104" s="49">
         <f>AT100+AT102</f>
-        <v>24762468864</v>
+        <v>24582005520</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -17051,7 +17051,7 @@
       </c>
       <c r="AT106" s="53">
         <f>(AT101*AT93)+(AT103*AT98)</f>
-        <v>8.522742310264543E-2</v>
+        <v>8.4984949880005461E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -17202,7 +17202,7 @@
       <c r="AP108" s="70"/>
       <c r="AQ108" s="56">
         <f>AQ107*(1+AT108)/(AT109-AT108)</f>
-        <v>19316366865.261082</v>
+        <v>19394448146.197136</v>
       </c>
       <c r="AR108" s="57" t="s">
         <v>145</v>
@@ -17233,7 +17233,7 @@
       </c>
       <c r="AQ109" s="56">
         <f>AQ108+AQ107</f>
-        <v>20451366865.261082</v>
+        <v>20529448146.197136</v>
       </c>
       <c r="AR109" s="57" t="s">
         <v>142</v>
@@ -17243,7 +17243,7 @@
       </c>
       <c r="AT109" s="39">
         <f>AT106</f>
-        <v>8.522742310264543E-2</v>
+        <v>8.4984949880005461E-2</v>
       </c>
     </row>
     <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.2">
@@ -17264,7 +17264,7 @@
       </c>
       <c r="AN111" s="48">
         <f>NPV(AT109,AM109,AN109,AO109,AP109,AQ109)</f>
-        <v>16234005609.69558</v>
+        <v>16302655766.756659</v>
       </c>
       <c r="AO111" s="43"/>
       <c r="AP111" s="43"/>
@@ -17309,7 +17309,7 @@
       </c>
       <c r="AN114" s="48">
         <f>AN111+AN112-AN113</f>
-        <v>14454977609.69558</v>
+        <v>14523627766.756659</v>
       </c>
       <c r="AO114" s="43"/>
       <c r="AP114" s="43"/>
@@ -17339,7 +17339,7 @@
       </c>
       <c r="AN116" s="62">
         <f>AN114/AN115</f>
-        <v>681.87744203313639</v>
+        <v>685.11584161810595</v>
       </c>
       <c r="AO116" s="43"/>
       <c r="AP116" s="43"/>
@@ -17354,7 +17354,7 @@
       </c>
       <c r="AN117" s="63" cm="1">
         <f t="array" ref="AN117">_FV(A1,"Price")</f>
-        <v>919.26</v>
+        <v>912</v>
       </c>
       <c r="AO117" s="43"/>
       <c r="AP117" s="43"/>
@@ -17369,7 +17369,7 @@
       </c>
       <c r="AN118" s="64">
         <f>AN116/AN117-1</f>
-        <v>-0.25823222806046564</v>
+        <v>-0.24877648945383124</v>
       </c>
       <c r="AO118" s="43"/>
       <c r="AP118" s="43"/>
